--- a/EECS_448_PROJECT_3-master/Documentation/Gantt_Chart/Gantt_chart.xlsx
+++ b/EECS_448_PROJECT_3-master/Documentation/Gantt_Chart/Gantt_chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qing Dong\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qing Dong\Desktop\EECS448_PROJECT4-master\EECS_448_PROJECT_3-master\Documentation\Gantt_Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2B5094-6E6F-430B-BDA0-0A3D90704203}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF2963E-9A8B-4DA2-8C7E-E32ADCC686C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="91">
   <si>
     <t>GANTT CHART TEMPLATE</t>
   </si>
@@ -272,37 +272,37 @@
     <t>More Level-up Feature</t>
   </si>
   <si>
-    <t>Sound Effect</t>
-  </si>
-  <si>
-    <t>Add other obstacles</t>
-  </si>
-  <si>
-    <t>Popup modal</t>
-  </si>
-  <si>
     <t>Optimize Shark Movement</t>
   </si>
   <si>
-    <t>Shark Rotate</t>
-  </si>
-  <si>
-    <t>Plan other addition features</t>
-  </si>
-  <si>
-    <t>Implement new features</t>
-  </si>
-  <si>
     <t>Write Documentation</t>
-  </si>
-  <si>
-    <t>Test Product and Fix Bug</t>
   </si>
   <si>
     <t>Project Four Presentation</t>
   </si>
   <si>
     <t>Fix Bug</t>
+  </si>
+  <si>
+    <t>Shark mirror rotate</t>
+  </si>
+  <si>
+    <t>Add more obstacles and food imgs</t>
+  </si>
+  <si>
+    <t>Add special Mode</t>
+  </si>
+  <si>
+    <t>Sound Effect(Background music)</t>
+  </si>
+  <si>
+    <t>Add pause window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup leaderboard modal </t>
+  </si>
+  <si>
+    <t>Test Product</t>
   </si>
 </sst>
 </file>
@@ -790,23 +790,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,31 +884,31 @@
                   <c:v>More Level-up Feature</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Sound Effect</c:v>
+                  <c:v>Sound Effect(Background music)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Add other obstacles</c:v>
+                  <c:v>Add more obstacles and food imgs</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Popup modal</c:v>
+                  <c:v>Popup leaderboard modal </c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Optimize Shark Movement</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Shark Rotate</c:v>
+                  <c:v>Shark mirror rotate</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Plan other addition features</c:v>
+                  <c:v>Add special Mode</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Implement new features</c:v>
+                  <c:v>Add pause window</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Write Documentation</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Test Product and Fix Bug</c:v>
+                  <c:v>Test Product</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>Project Four Presentation</c:v>
@@ -1033,31 +1033,31 @@
                   <c:v>More Level-up Feature</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Sound Effect</c:v>
+                  <c:v>Sound Effect(Background music)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Add other obstacles</c:v>
+                  <c:v>Add more obstacles and food imgs</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Popup modal</c:v>
+                  <c:v>Popup leaderboard modal </c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Optimize Shark Movement</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Shark Rotate</c:v>
+                  <c:v>Shark mirror rotate</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Plan other addition features</c:v>
+                  <c:v>Add special Mode</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Implement new features</c:v>
+                  <c:v>Add pause window</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Write Documentation</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Test Product and Fix Bug</c:v>
+                  <c:v>Test Product</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>Project Four Presentation</c:v>
@@ -1182,31 +1182,31 @@
                   <c:v>More Level-up Feature</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Sound Effect</c:v>
+                  <c:v>Sound Effect(Background music)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Add other obstacles</c:v>
+                  <c:v>Add more obstacles and food imgs</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Popup modal</c:v>
+                  <c:v>Popup leaderboard modal </c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Optimize Shark Movement</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Shark Rotate</c:v>
+                  <c:v>Shark mirror rotate</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Plan other addition features</c:v>
+                  <c:v>Add special Mode</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Implement new features</c:v>
+                  <c:v>Add pause window</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Write Documentation</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Test Product and Fix Bug</c:v>
+                  <c:v>Test Product</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>Project Four Presentation</c:v>
@@ -2281,8 +2281,8 @@
   </sheetPr>
   <dimension ref="A1:AJ50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F4" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G4" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2659,9 +2659,7 @@
         <f>SUM(F9-G9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="57" t="s">
-        <v>26</v>
-      </c>
+      <c r="I9" s="57"/>
       <c r="J9" s="61">
         <v>1</v>
       </c>
@@ -2718,9 +2716,7 @@
         <f t="shared" ref="H10:H29" si="2">SUM(F10-G10)</f>
         <v>1.5999999999999996</v>
       </c>
-      <c r="I10" s="57" t="s">
-        <v>27</v>
-      </c>
+      <c r="I10" s="57"/>
       <c r="J10" s="64">
         <v>0.8</v>
       </c>
@@ -2777,9 +2773,7 @@
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="I11" s="57" t="s">
-        <v>29</v>
-      </c>
+      <c r="I11" s="57"/>
       <c r="J11" s="61">
         <v>0.6</v>
       </c>
@@ -2836,9 +2830,7 @@
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="I12" s="57" t="s">
-        <v>31</v>
-      </c>
+      <c r="I12" s="57"/>
       <c r="J12" s="65">
         <v>0.4</v>
       </c>
@@ -2869,9 +2861,7 @@
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="I13" s="57" t="s">
-        <v>33</v>
-      </c>
+      <c r="I13" s="57"/>
       <c r="J13" s="66">
         <v>0.2</v>
       </c>
@@ -2887,7 +2877,7 @@
       <c r="F14" s="67"/>
       <c r="G14" s="67"/>
       <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
+      <c r="I14" s="57"/>
       <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:36" ht="15">
@@ -2916,9 +2906,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I15" s="57" t="s">
-        <v>26</v>
-      </c>
+      <c r="I15" s="57"/>
       <c r="J15" s="70">
         <v>1</v>
       </c>
@@ -2949,22 +2937,20 @@
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
-      <c r="I16" s="57" t="s">
-        <v>27</v>
-      </c>
+      <c r="I16" s="57"/>
       <c r="J16" s="71">
         <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="B17" s="57" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C17" s="68">
         <v>43779</v>
       </c>
       <c r="D17" s="60">
-        <f t="shared" ref="D15:D18" si="3">DAY(C17)</f>
+        <f t="shared" ref="D17:D18" si="3">DAY(C17)</f>
         <v>10</v>
       </c>
       <c r="E17" s="69">
@@ -2982,16 +2968,14 @@
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="I17" s="57" t="s">
-        <v>29</v>
-      </c>
+      <c r="I17" s="57"/>
       <c r="J17" s="72">
         <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="B18" s="57" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C18" s="68">
         <v>43779</v>
@@ -3015,9 +2999,7 @@
         <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="I18" s="57" t="s">
-        <v>31</v>
-      </c>
+      <c r="I18" s="57"/>
       <c r="J18" s="72">
         <v>0.4</v>
       </c>
@@ -3031,12 +3013,12 @@
       <c r="F19" s="67"/>
       <c r="G19" s="67"/>
       <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
+      <c r="I19" s="57"/>
       <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="B20" s="57" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C20" s="68">
         <v>43781</v>
@@ -3060,22 +3042,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I20" s="57" t="s">
-        <v>26</v>
-      </c>
+      <c r="I20" s="57"/>
       <c r="J20" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="B21" s="57" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C21" s="68">
         <v>43781</v>
       </c>
       <c r="D21" s="60">
-        <f t="shared" ref="D20:D24" si="4">DAY(C21)</f>
+        <f t="shared" ref="D21:D24" si="4">DAY(C21)</f>
         <v>12</v>
       </c>
       <c r="E21" s="69">
@@ -3093,9 +3073,7 @@
         <f t="shared" si="2"/>
         <v>1.5999999999999996</v>
       </c>
-      <c r="I21" s="57" t="s">
-        <v>27</v>
-      </c>
+      <c r="I21" s="57"/>
       <c r="J21" s="72">
         <v>0.8</v>
       </c>
@@ -3126,16 +3104,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I22" s="57" t="s">
-        <v>29</v>
-      </c>
+      <c r="I22" s="57"/>
       <c r="J22" s="72">
         <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="B23" s="57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="68">
         <v>43788</v>
@@ -3159,16 +3135,14 @@
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="I23" s="57" t="s">
-        <v>31</v>
-      </c>
+      <c r="I23" s="57"/>
       <c r="J23" s="72">
         <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="B24" s="57" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C24" s="68">
         <v>43789</v>
@@ -3192,9 +3166,7 @@
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="I24" s="57" t="s">
-        <v>33</v>
-      </c>
+      <c r="I24" s="57"/>
       <c r="J24" s="72">
         <v>0.2</v>
       </c>
@@ -3210,18 +3182,18 @@
       <c r="F25" s="67"/>
       <c r="G25" s="67"/>
       <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
+      <c r="I25" s="57"/>
       <c r="J25" s="67"/>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="B26" s="57" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C26" s="68">
         <v>43795</v>
       </c>
       <c r="D26" s="60">
-        <f t="shared" ref="D26:D29" si="5">DAY(C26)</f>
+        <f t="shared" ref="D26:D28" si="5">DAY(C26)</f>
         <v>26</v>
       </c>
       <c r="E26" s="69">
@@ -3239,16 +3211,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I26" s="57" t="s">
-        <v>26</v>
-      </c>
+      <c r="I26" s="57"/>
       <c r="J26" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="B27" s="57" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C27" s="68">
         <v>43795</v>
@@ -3272,16 +3242,14 @@
         <f t="shared" si="2"/>
         <v>0.79999999999999982</v>
       </c>
-      <c r="I27" s="57" t="s">
-        <v>27</v>
-      </c>
+      <c r="I27" s="57"/>
       <c r="J27" s="72">
         <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="B28" s="57" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C28" s="68">
         <v>43798</v>
@@ -3305,16 +3273,14 @@
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="I28" s="57" t="s">
-        <v>31</v>
-      </c>
+      <c r="I28" s="57"/>
       <c r="J28" s="72">
         <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="B29" s="57" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C29" s="68">
         <v>43101</v>
@@ -3337,9 +3303,7 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="I29" s="57" t="s">
-        <v>33</v>
-      </c>
+      <c r="I29" s="57"/>
       <c r="J29" s="72">
         <v>0</v>
       </c>
@@ -3397,6 +3361,13 @@
     <row r="50" ht="12.75"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="F6:F7"/>
@@ -3405,13 +3376,6 @@
     <mergeCell ref="U6:Y6"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="P6:T6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:J13 J15:J18 J20:J24 J26:J29">
     <cfRule type="colorScale" priority="1">
@@ -4388,11 +4352,6 @@
     <row r="50" ht="12.75"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
@@ -4402,6 +4361,11 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H9:H13 H15:H18 H20:H24 H26:H29">
     <cfRule type="colorScale" priority="1">
@@ -4582,7 +4546,7 @@
       <c r="BO2" s="2"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="85" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="82"/>
@@ -4807,93 +4771,93 @@
       <c r="F6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="90" t="s">
+      <c r="G6" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88" t="s">
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="86" t="s">
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="88" t="s">
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="86" t="s">
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="88" t="s">
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="87"/>
-      <c r="AI6" s="87"/>
-      <c r="AJ6" s="87"/>
-      <c r="AK6" s="87"/>
-      <c r="AL6" s="86" t="s">
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="84"/>
+      <c r="AJ6" s="84"/>
+      <c r="AK6" s="84"/>
+      <c r="AL6" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="87"/>
-      <c r="AN6" s="87"/>
-      <c r="AO6" s="87"/>
-      <c r="AP6" s="87"/>
-      <c r="AQ6" s="88" t="s">
+      <c r="AM6" s="84"/>
+      <c r="AN6" s="84"/>
+      <c r="AO6" s="84"/>
+      <c r="AP6" s="84"/>
+      <c r="AQ6" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AR6" s="87"/>
-      <c r="AS6" s="87"/>
-      <c r="AT6" s="87"/>
-      <c r="AU6" s="87"/>
-      <c r="AV6" s="86" t="s">
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="84"/>
+      <c r="AT6" s="84"/>
+      <c r="AU6" s="84"/>
+      <c r="AV6" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="AW6" s="87"/>
-      <c r="AX6" s="87"/>
-      <c r="AY6" s="87"/>
-      <c r="AZ6" s="87"/>
-      <c r="BA6" s="88" t="s">
+      <c r="AW6" s="84"/>
+      <c r="AX6" s="84"/>
+      <c r="AY6" s="84"/>
+      <c r="AZ6" s="84"/>
+      <c r="BA6" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="BB6" s="87"/>
-      <c r="BC6" s="87"/>
-      <c r="BD6" s="87"/>
-      <c r="BE6" s="87"/>
-      <c r="BF6" s="86" t="s">
+      <c r="BB6" s="84"/>
+      <c r="BC6" s="84"/>
+      <c r="BD6" s="84"/>
+      <c r="BE6" s="84"/>
+      <c r="BF6" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="BG6" s="87"/>
-      <c r="BH6" s="87"/>
-      <c r="BI6" s="87"/>
-      <c r="BJ6" s="87"/>
-      <c r="BK6" s="88" t="s">
+      <c r="BG6" s="84"/>
+      <c r="BH6" s="84"/>
+      <c r="BI6" s="84"/>
+      <c r="BJ6" s="84"/>
+      <c r="BK6" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="BL6" s="87"/>
-      <c r="BM6" s="87"/>
-      <c r="BN6" s="87"/>
-      <c r="BO6" s="87"/>
+      <c r="BL6" s="84"/>
+      <c r="BM6" s="84"/>
+      <c r="BN6" s="84"/>
+      <c r="BO6" s="84"/>
     </row>
     <row r="7" spans="1:67" ht="15">
       <c r="A7" s="78"/>
@@ -4902,7 +4866,7 @@
       <c r="D7" s="78"/>
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
-      <c r="G7" s="91"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
@@ -5089,11 +5053,11 @@
         <v>24</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -5640,11 +5604,11 @@
         <v>36</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
       <c r="H15" s="36"/>
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
@@ -6035,11 +5999,11 @@
         <v>41</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
       <c r="H20" s="36"/>
       <c r="I20" s="37"/>
       <c r="J20" s="38"/>
@@ -6592,11 +6556,11 @@
         <v>48</v>
       </c>
       <c r="B27" s="35"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
       <c r="H27" s="36"/>
       <c r="I27" s="37"/>
       <c r="J27" s="38"/>
@@ -9963,6 +9927,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="BF6:BJ6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="W6:AA6"/>
     <mergeCell ref="BK6:BO6"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="A3:G3"/>
@@ -9979,14 +9951,6 @@
     <mergeCell ref="AG6:AK6"/>
     <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="R6:V6"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="BF6:BJ6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="W6:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:G14 G16:G19 G21:G26 G28:G31">
     <cfRule type="colorScale" priority="1">

--- a/EECS_448_PROJECT_3-master/Documentation/Gantt_Chart/Gantt_chart.xlsx
+++ b/EECS_448_PROJECT_3-master/Documentation/Gantt_Chart/Gantt_chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qing Dong\Desktop\EECS448_PROJECT4-master\EECS_448_PROJECT_3-master\Documentation\Gantt_Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17857\Desktop\EECS448_PROJECT4\EECS_448_PROJECT_3-master\Documentation\Gantt_Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF2963E-9A8B-4DA2-8C7E-E32ADCC686C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B86ED5B-1305-4AD1-9AAE-8FD8EF0C7ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart w % Complete" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>GANTT CHART TEMPLATE</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>Test Product</t>
+  </si>
+  <si>
+    <t>11/31/2019</t>
   </si>
 </sst>
 </file>
@@ -790,23 +793,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1275,7 +1278,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2281,21 +2284,21 @@
   </sheetPr>
   <dimension ref="A1:AJ50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G4" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="12" width="7.28515625" customWidth="1"/>
-    <col min="13" max="14" width="3.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" customWidth="1"/>
-    <col min="16" max="34" width="4.42578125" customWidth="1"/>
-    <col min="35" max="36" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1"/>
+    <col min="3" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="12" width="7.33203125" customWidth="1"/>
+    <col min="13" max="14" width="3.6640625" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" customWidth="1"/>
+    <col min="16" max="34" width="4.44140625" customWidth="1"/>
+    <col min="35" max="36" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="78.599999999999994" customHeight="1">
@@ -2336,7 +2339,7 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
     </row>
-    <row r="2" spans="1:36" ht="12.75">
+    <row r="2" spans="1:36" ht="13.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2374,7 +2377,7 @@
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
     </row>
-    <row r="3" spans="1:36" ht="33.75">
+    <row r="3" spans="1:36" ht="33.6">
       <c r="A3" s="44"/>
       <c r="B3" s="46" t="str">
         <f>HYPERLINK("https://www.teamgantt.com/signup?utm_source=google-sheets-gantt-template&amp;utm_medium=download&amp;utm_campaign=google-sheets-gantt-template","Build better gantt charts with TeamGantt for FREE!")</f>
@@ -2491,7 +2494,7 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="1:36" ht="15">
+    <row r="6" spans="1:36" ht="14.4">
       <c r="A6" s="77"/>
       <c r="B6" s="77" t="s">
         <v>1</v>
@@ -2555,7 +2558,7 @@
       <c r="AI6" s="78"/>
       <c r="AJ6" s="49"/>
     </row>
-    <row r="7" spans="1:36" ht="15">
+    <row r="7" spans="1:36" ht="14.4">
       <c r="A7" s="78"/>
       <c r="B7" s="78"/>
       <c r="C7" s="78"/>
@@ -2593,7 +2596,7 @@
       <c r="AI7" s="49"/>
       <c r="AJ7" s="49"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" ht="15.6">
       <c r="A8" s="52" t="s">
         <v>71</v>
       </c>
@@ -2633,7 +2636,7 @@
       <c r="AI8" s="54"/>
       <c r="AJ8" s="54"/>
     </row>
-    <row r="9" spans="1:36" ht="15">
+    <row r="9" spans="1:36" ht="14.4">
       <c r="B9" s="57" t="s">
         <v>72</v>
       </c>
@@ -2690,7 +2693,7 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="1:36" ht="15">
+    <row r="10" spans="1:36" ht="14.4">
       <c r="B10" s="57" t="s">
         <v>73</v>
       </c>
@@ -2747,7 +2750,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" ht="15">
+    <row r="11" spans="1:36" ht="14.4">
       <c r="B11" s="57" t="s">
         <v>74</v>
       </c>
@@ -2804,7 +2807,7 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
     </row>
-    <row r="12" spans="1:36" ht="15">
+    <row r="12" spans="1:36" ht="14.4">
       <c r="B12" s="57" t="s">
         <v>75</v>
       </c>
@@ -2835,7 +2838,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="15">
+    <row r="13" spans="1:36" ht="14.4">
       <c r="B13" s="57" t="s">
         <v>76</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" ht="15.6">
       <c r="A14" s="52" t="s">
         <v>77</v>
       </c>
@@ -2880,7 +2883,7 @@
       <c r="I14" s="57"/>
       <c r="J14" s="67"/>
     </row>
-    <row r="15" spans="1:36" ht="15">
+    <row r="15" spans="1:36" ht="14.4">
       <c r="B15" s="57" t="s">
         <v>78</v>
       </c>
@@ -2911,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="15">
+    <row r="16" spans="1:36" ht="14.4">
       <c r="B16" s="57" t="s">
         <v>79</v>
       </c>
@@ -2942,7 +2945,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row r="17" spans="1:10" ht="14.4">
       <c r="B17" s="57" t="s">
         <v>87</v>
       </c>
@@ -2973,7 +2976,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15">
+    <row r="18" spans="1:10" ht="14.4">
       <c r="B18" s="57" t="s">
         <v>85</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="15.6">
       <c r="A19" s="52"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -3016,7 +3019,7 @@
       <c r="I19" s="57"/>
       <c r="J19" s="67"/>
     </row>
-    <row r="20" spans="1:10" ht="15">
+    <row r="20" spans="1:10" ht="14.4">
       <c r="B20" s="57" t="s">
         <v>89</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15">
+    <row r="21" spans="1:10" ht="14.4">
       <c r="B21" s="57" t="s">
         <v>80</v>
       </c>
@@ -3078,7 +3081,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10" ht="14.4">
       <c r="B22" s="57" t="s">
         <v>84</v>
       </c>
@@ -3109,7 +3112,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15">
+    <row r="23" spans="1:10" ht="14.4">
       <c r="B23" s="57" t="s">
         <v>86</v>
       </c>
@@ -3140,7 +3143,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15">
+    <row r="24" spans="1:10" ht="14.4">
       <c r="B24" s="57" t="s">
         <v>88</v>
       </c>
@@ -3171,7 +3174,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="15.6">
       <c r="A25" s="52" t="s">
         <v>48</v>
       </c>
@@ -3185,7 +3188,7 @@
       <c r="I25" s="57"/>
       <c r="J25" s="67"/>
     </row>
-    <row r="26" spans="1:10" ht="15">
+    <row r="26" spans="1:10" ht="14.4">
       <c r="B26" s="57" t="s">
         <v>81</v>
       </c>
@@ -3216,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="27" spans="1:10" ht="14.4">
       <c r="B27" s="57" t="s">
         <v>90</v>
       </c>
@@ -3247,7 +3250,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15">
+    <row r="28" spans="1:10" ht="14.4">
       <c r="B28" s="57" t="s">
         <v>82</v>
       </c>
@@ -3278,30 +3281,30 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15">
+    <row r="29" spans="1:10" ht="14.4">
       <c r="B29" s="57" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="68">
-        <v>43101</v>
+        <v>43770</v>
       </c>
       <c r="D29" s="60">
         <v>1</v>
       </c>
-      <c r="E29" s="69">
-        <v>43131</v>
-      </c>
-      <c r="F29" s="75">
+      <c r="E29" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="75" t="e">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="G29" s="62">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29" s="62" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="76">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29" s="76" t="e">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I29" s="57"/>
       <c r="J29" s="72">
@@ -3344,30 +3347,23 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="36" ht="12.75"/>
-    <row r="37" ht="12.75"/>
-    <row r="38" ht="12.75"/>
-    <row r="39" ht="12.75"/>
-    <row r="40" ht="12.75"/>
-    <row r="41" ht="12.75"/>
-    <row r="42" ht="12.75"/>
-    <row r="43" ht="12.75"/>
-    <row r="44" ht="12.75"/>
-    <row r="45" ht="12.75"/>
-    <row r="46" ht="12.75"/>
-    <row r="47" ht="12.75"/>
-    <row r="48" ht="12.75"/>
-    <row r="49" ht="12.75"/>
-    <row r="50" ht="12.75"/>
+    <row r="36" ht="13.2"/>
+    <row r="37" ht="13.2"/>
+    <row r="38" ht="13.2"/>
+    <row r="39" ht="13.2"/>
+    <row r="40" ht="13.2"/>
+    <row r="41" ht="13.2"/>
+    <row r="42" ht="13.2"/>
+    <row r="43" ht="13.2"/>
+    <row r="44" ht="13.2"/>
+    <row r="45" ht="13.2"/>
+    <row r="46" ht="13.2"/>
+    <row r="47" ht="13.2"/>
+    <row r="48" ht="13.2"/>
+    <row r="49" ht="13.2"/>
+    <row r="50" ht="13.2"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="F6:F7"/>
@@ -3376,6 +3372,13 @@
     <mergeCell ref="U6:Y6"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="P6:T6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:J13 J15:J18 J20:J24 J26:J29">
     <cfRule type="colorScale" priority="1">
@@ -3413,17 +3416,17 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="12" width="3.7109375" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" customWidth="1"/>
-    <col min="14" max="32" width="4.42578125" customWidth="1"/>
-    <col min="33" max="34" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1"/>
+    <col min="3" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="12" width="3.6640625" customWidth="1"/>
+    <col min="13" max="13" width="6.44140625" customWidth="1"/>
+    <col min="14" max="32" width="4.44140625" customWidth="1"/>
+    <col min="33" max="34" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" customHeight="1">
@@ -3609,7 +3612,7 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
     </row>
-    <row r="6" spans="1:34" ht="15">
+    <row r="6" spans="1:34" ht="14.4">
       <c r="A6" s="77"/>
       <c r="B6" s="77" t="s">
         <v>1</v>
@@ -3667,7 +3670,7 @@
       <c r="AG6" s="78"/>
       <c r="AH6" s="49"/>
     </row>
-    <row r="7" spans="1:34" ht="15">
+    <row r="7" spans="1:34" ht="14.4">
       <c r="A7" s="78"/>
       <c r="B7" s="78"/>
       <c r="C7" s="78"/>
@@ -3703,7 +3706,7 @@
       <c r="AG7" s="49"/>
       <c r="AH7" s="49"/>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" ht="15.6">
       <c r="A8" s="52" t="s">
         <v>24</v>
       </c>
@@ -3741,7 +3744,7 @@
       <c r="AG8" s="54"/>
       <c r="AH8" s="54"/>
     </row>
-    <row r="9" spans="1:34" ht="15">
+    <row r="9" spans="1:34" ht="14.4">
       <c r="B9" s="57" t="s">
         <v>25</v>
       </c>
@@ -3792,7 +3795,7 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
     </row>
-    <row r="10" spans="1:34" ht="15">
+    <row r="10" spans="1:34" ht="14.4">
       <c r="B10" s="57" t="s">
         <v>59</v>
       </c>
@@ -3843,7 +3846,7 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
     </row>
-    <row r="11" spans="1:34" ht="15">
+    <row r="11" spans="1:34" ht="14.4">
       <c r="B11" s="57" t="s">
         <v>28</v>
       </c>
@@ -3894,7 +3897,7 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
     </row>
-    <row r="12" spans="1:34" ht="15">
+    <row r="12" spans="1:34" ht="14.4">
       <c r="B12" s="57" t="s">
         <v>30</v>
       </c>
@@ -3919,7 +3922,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15">
+    <row r="13" spans="1:34" ht="14.4">
       <c r="B13" s="57" t="s">
         <v>32</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" ht="15.6">
       <c r="A14" s="52" t="s">
         <v>36</v>
       </c>
@@ -3956,7 +3959,7 @@
       <c r="G14" s="67"/>
       <c r="H14" s="67"/>
     </row>
-    <row r="15" spans="1:34" ht="15">
+    <row r="15" spans="1:34" ht="14.4">
       <c r="B15" s="57" t="s">
         <v>37</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="15">
+    <row r="16" spans="1:34" ht="14.4">
       <c r="B16" s="57" t="s">
         <v>38</v>
       </c>
@@ -4006,7 +4009,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" ht="14.4">
       <c r="B17" s="57" t="s">
         <v>60</v>
       </c>
@@ -4031,7 +4034,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" ht="14.4">
       <c r="B18" s="57" t="s">
         <v>61</v>
       </c>
@@ -4056,7 +4059,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="52" t="s">
         <v>41</v>
       </c>
@@ -4068,7 +4071,7 @@
       <c r="G19" s="67"/>
       <c r="H19" s="67"/>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="14.4">
       <c r="B20" s="57" t="s">
         <v>62</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" ht="14.4">
       <c r="B21" s="57" t="s">
         <v>63</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="14.4">
       <c r="B22" s="57" t="s">
         <v>64</v>
       </c>
@@ -4143,7 +4146,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="14.4">
       <c r="B23" s="57" t="s">
         <v>65</v>
       </c>
@@ -4168,7 +4171,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" ht="14.4">
       <c r="B24" s="57" t="s">
         <v>66</v>
       </c>
@@ -4193,7 +4196,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="52" t="s">
         <v>48</v>
       </c>
@@ -4205,7 +4208,7 @@
       <c r="G25" s="67"/>
       <c r="H25" s="67"/>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" ht="14.4">
       <c r="B26" s="57" t="s">
         <v>67</v>
       </c>
@@ -4230,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="14.4">
       <c r="B27" s="57" t="s">
         <v>68</v>
       </c>
@@ -4255,7 +4258,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" ht="14.4">
       <c r="B28" s="57" t="s">
         <v>69</v>
       </c>
@@ -4280,7 +4283,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" ht="14.4">
       <c r="B29" s="57" t="s">
         <v>70</v>
       </c>
@@ -4335,23 +4338,28 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="36" ht="12.75"/>
-    <row r="37" ht="12.75"/>
-    <row r="38" ht="12.75"/>
-    <row r="39" ht="12.75"/>
-    <row r="40" ht="12.75"/>
-    <row r="41" ht="12.75"/>
-    <row r="42" ht="12.75"/>
-    <row r="43" ht="12.75"/>
-    <row r="44" ht="12.75"/>
-    <row r="45" ht="12.75"/>
-    <row r="46" ht="12.75"/>
-    <row r="47" ht="12.75"/>
-    <row r="48" ht="12.75"/>
-    <row r="49" ht="12.75"/>
-    <row r="50" ht="12.75"/>
+    <row r="36" ht="13.2"/>
+    <row r="37" ht="13.2"/>
+    <row r="38" ht="13.2"/>
+    <row r="39" ht="13.2"/>
+    <row r="40" ht="13.2"/>
+    <row r="41" ht="13.2"/>
+    <row r="42" ht="13.2"/>
+    <row r="43" ht="13.2"/>
+    <row r="44" ht="13.2"/>
+    <row r="45" ht="13.2"/>
+    <row r="46" ht="13.2"/>
+    <row r="47" ht="13.2"/>
+    <row r="48" ht="13.2"/>
+    <row r="49" ht="13.2"/>
+    <row r="50" ht="13.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
@@ -4361,11 +4369,6 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H9:H13 H15:H18 H20:H24 H26:H29">
     <cfRule type="colorScale" priority="1">
@@ -4398,13 +4401,13 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="67" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1"/>
+    <col min="3" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="67" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="15.75" customHeight="1">
@@ -4546,7 +4549,7 @@
       <c r="BO2" s="2"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="82"/>
@@ -4754,7 +4757,7 @@
       <c r="BN5" s="2"/>
       <c r="BO5" s="2"/>
     </row>
-    <row r="6" spans="1:67" ht="15">
+    <row r="6" spans="1:67" ht="14.4">
       <c r="A6" s="77"/>
       <c r="B6" s="77" t="s">
         <v>1</v>
@@ -4771,102 +4774,102 @@
       <c r="F6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="83" t="s">
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="88" t="s">
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="83" t="s">
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="88" t="s">
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="83" t="s">
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="84"/>
-      <c r="AL6" s="88" t="s">
+      <c r="AH6" s="87"/>
+      <c r="AI6" s="87"/>
+      <c r="AJ6" s="87"/>
+      <c r="AK6" s="87"/>
+      <c r="AL6" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="84"/>
-      <c r="AN6" s="84"/>
-      <c r="AO6" s="84"/>
-      <c r="AP6" s="84"/>
-      <c r="AQ6" s="83" t="s">
+      <c r="AM6" s="87"/>
+      <c r="AN6" s="87"/>
+      <c r="AO6" s="87"/>
+      <c r="AP6" s="87"/>
+      <c r="AQ6" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="84"/>
-      <c r="AT6" s="84"/>
-      <c r="AU6" s="84"/>
-      <c r="AV6" s="88" t="s">
+      <c r="AR6" s="87"/>
+      <c r="AS6" s="87"/>
+      <c r="AT6" s="87"/>
+      <c r="AU6" s="87"/>
+      <c r="AV6" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="AW6" s="84"/>
-      <c r="AX6" s="84"/>
-      <c r="AY6" s="84"/>
-      <c r="AZ6" s="84"/>
-      <c r="BA6" s="83" t="s">
+      <c r="AW6" s="87"/>
+      <c r="AX6" s="87"/>
+      <c r="AY6" s="87"/>
+      <c r="AZ6" s="87"/>
+      <c r="BA6" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="BB6" s="84"/>
-      <c r="BC6" s="84"/>
-      <c r="BD6" s="84"/>
-      <c r="BE6" s="84"/>
-      <c r="BF6" s="88" t="s">
+      <c r="BB6" s="87"/>
+      <c r="BC6" s="87"/>
+      <c r="BD6" s="87"/>
+      <c r="BE6" s="87"/>
+      <c r="BF6" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="BG6" s="84"/>
-      <c r="BH6" s="84"/>
-      <c r="BI6" s="84"/>
-      <c r="BJ6" s="84"/>
-      <c r="BK6" s="83" t="s">
+      <c r="BG6" s="87"/>
+      <c r="BH6" s="87"/>
+      <c r="BI6" s="87"/>
+      <c r="BJ6" s="87"/>
+      <c r="BK6" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="BL6" s="84"/>
-      <c r="BM6" s="84"/>
-      <c r="BN6" s="84"/>
-      <c r="BO6" s="84"/>
-    </row>
-    <row r="7" spans="1:67" ht="15">
+      <c r="BL6" s="87"/>
+      <c r="BM6" s="87"/>
+      <c r="BN6" s="87"/>
+      <c r="BO6" s="87"/>
+    </row>
+    <row r="7" spans="1:67" ht="14.4">
       <c r="A7" s="78"/>
       <c r="B7" s="78"/>
       <c r="C7" s="78"/>
       <c r="D7" s="78"/>
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
-      <c r="G7" s="87"/>
+      <c r="G7" s="91"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
@@ -5048,16 +5051,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:67">
+    <row r="8" spans="1:67" ht="15.6">
       <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -5119,7 +5122,7 @@
       <c r="BN8" s="16"/>
       <c r="BO8" s="16"/>
     </row>
-    <row r="9" spans="1:67" ht="15">
+    <row r="9" spans="1:67" ht="14.4">
       <c r="B9" s="19" t="s">
         <v>25</v>
       </c>
@@ -5200,7 +5203,7 @@
       <c r="BN9" s="26"/>
       <c r="BO9" s="28"/>
     </row>
-    <row r="10" spans="1:67" ht="15">
+    <row r="10" spans="1:67" ht="14.4">
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -5275,7 +5278,7 @@
       <c r="BN10" s="26"/>
       <c r="BO10" s="28"/>
     </row>
-    <row r="11" spans="1:67" ht="15">
+    <row r="11" spans="1:67" ht="14.4">
       <c r="B11" s="19" t="s">
         <v>28</v>
       </c>
@@ -5356,7 +5359,7 @@
       <c r="BN11" s="26"/>
       <c r="BO11" s="28"/>
     </row>
-    <row r="12" spans="1:67" ht="15">
+    <row r="12" spans="1:67" ht="14.4">
       <c r="B12" s="19" t="s">
         <v>30</v>
       </c>
@@ -5437,7 +5440,7 @@
       <c r="BN12" s="26"/>
       <c r="BO12" s="28"/>
     </row>
-    <row r="13" spans="1:67" ht="15">
+    <row r="13" spans="1:67" ht="14.4">
       <c r="B13" s="19" t="s">
         <v>32</v>
       </c>
@@ -5518,7 +5521,7 @@
       <c r="BN13" s="26"/>
       <c r="BO13" s="28"/>
     </row>
-    <row r="14" spans="1:67" ht="15">
+    <row r="14" spans="1:67" ht="14.4">
       <c r="B14" s="19" t="s">
         <v>34</v>
       </c>
@@ -5599,16 +5602,16 @@
       <c r="BN14" s="26"/>
       <c r="BO14" s="28"/>
     </row>
-    <row r="15" spans="1:67">
+    <row r="15" spans="1:67" ht="15.6">
       <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
       <c r="H15" s="36"/>
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
@@ -5670,7 +5673,7 @@
       <c r="BN15" s="36"/>
       <c r="BO15" s="36"/>
     </row>
-    <row r="16" spans="1:67" ht="15">
+    <row r="16" spans="1:67" ht="14.4">
       <c r="B16" s="19" t="s">
         <v>37</v>
       </c>
@@ -5751,7 +5754,7 @@
       <c r="BN16" s="26"/>
       <c r="BO16" s="28"/>
     </row>
-    <row r="17" spans="1:67" ht="15">
+    <row r="17" spans="1:67" ht="14.4">
       <c r="B17" s="19" t="s">
         <v>38</v>
       </c>
@@ -5832,7 +5835,7 @@
       <c r="BN17" s="26"/>
       <c r="BO17" s="28"/>
     </row>
-    <row r="18" spans="1:67" ht="15">
+    <row r="18" spans="1:67" ht="14.4">
       <c r="B18" s="19" t="s">
         <v>39</v>
       </c>
@@ -5913,7 +5916,7 @@
       <c r="BN18" s="26"/>
       <c r="BO18" s="28"/>
     </row>
-    <row r="19" spans="1:67" ht="15">
+    <row r="19" spans="1:67" ht="14.4">
       <c r="B19" s="19" t="s">
         <v>40</v>
       </c>
@@ -5994,16 +5997,16 @@
       <c r="BN19" s="26"/>
       <c r="BO19" s="28"/>
     </row>
-    <row r="20" spans="1:67">
+    <row r="20" spans="1:67" ht="15.6">
       <c r="A20" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
       <c r="H20" s="36"/>
       <c r="I20" s="37"/>
       <c r="J20" s="38"/>
@@ -6065,7 +6068,7 @@
       <c r="BN20" s="36"/>
       <c r="BO20" s="36"/>
     </row>
-    <row r="21" spans="1:67" ht="15">
+    <row r="21" spans="1:67" ht="14.4">
       <c r="B21" s="19" t="s">
         <v>42</v>
       </c>
@@ -6146,7 +6149,7 @@
       <c r="BN21" s="26"/>
       <c r="BO21" s="28"/>
     </row>
-    <row r="22" spans="1:67" ht="30">
+    <row r="22" spans="1:67" ht="14.4">
       <c r="B22" s="19" t="s">
         <v>43</v>
       </c>
@@ -6227,7 +6230,7 @@
       <c r="BN22" s="26"/>
       <c r="BO22" s="28"/>
     </row>
-    <row r="23" spans="1:67" ht="15">
+    <row r="23" spans="1:67" ht="14.4">
       <c r="B23" s="19" t="s">
         <v>44</v>
       </c>
@@ -6308,7 +6311,7 @@
       <c r="BN23" s="26"/>
       <c r="BO23" s="28"/>
     </row>
-    <row r="24" spans="1:67" ht="15">
+    <row r="24" spans="1:67" ht="14.4">
       <c r="B24" s="19" t="s">
         <v>45</v>
       </c>
@@ -6389,7 +6392,7 @@
       <c r="BN24" s="26"/>
       <c r="BO24" s="28"/>
     </row>
-    <row r="25" spans="1:67" ht="15">
+    <row r="25" spans="1:67" ht="14.4">
       <c r="B25" s="19" t="s">
         <v>46</v>
       </c>
@@ -6470,7 +6473,7 @@
       <c r="BN25" s="26"/>
       <c r="BO25" s="28"/>
     </row>
-    <row r="26" spans="1:67" ht="15">
+    <row r="26" spans="1:67" ht="14.4">
       <c r="B26" s="19" t="s">
         <v>47</v>
       </c>
@@ -6551,16 +6554,16 @@
       <c r="BN26" s="26"/>
       <c r="BO26" s="28"/>
     </row>
-    <row r="27" spans="1:67">
+    <row r="27" spans="1:67" ht="15.6">
       <c r="A27" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="35"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
       <c r="H27" s="36"/>
       <c r="I27" s="37"/>
       <c r="J27" s="38"/>
@@ -6622,7 +6625,7 @@
       <c r="BN27" s="36"/>
       <c r="BO27" s="36"/>
     </row>
-    <row r="28" spans="1:67" ht="15">
+    <row r="28" spans="1:67" ht="14.4">
       <c r="B28" s="19" t="s">
         <v>50</v>
       </c>
@@ -6703,7 +6706,7 @@
       <c r="BN28" s="26"/>
       <c r="BO28" s="28"/>
     </row>
-    <row r="29" spans="1:67" ht="15">
+    <row r="29" spans="1:67" ht="14.4">
       <c r="B29" s="19" t="s">
         <v>53</v>
       </c>
@@ -6784,7 +6787,7 @@
       <c r="BN29" s="26"/>
       <c r="BO29" s="28"/>
     </row>
-    <row r="30" spans="1:67" ht="15">
+    <row r="30" spans="1:67" ht="14.4">
       <c r="B30" s="19" t="s">
         <v>57</v>
       </c>
@@ -6865,7 +6868,7 @@
       <c r="BN30" s="26"/>
       <c r="BO30" s="28"/>
     </row>
-    <row r="31" spans="1:67" ht="15">
+    <row r="31" spans="1:67" ht="14.4">
       <c r="B31" s="19" t="s">
         <v>58</v>
       </c>
@@ -6976,2818 +6979,2818 @@
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" s="53"/>
     </row>
-    <row r="36" spans="1:7" ht="12.75">
+    <row r="36" spans="1:7" ht="13.2">
       <c r="A36" s="53"/>
     </row>
-    <row r="37" spans="1:7" ht="12.75">
+    <row r="37" spans="1:7" ht="13.2">
       <c r="A37" s="53"/>
     </row>
-    <row r="38" spans="1:7" ht="12.75">
+    <row r="38" spans="1:7" ht="13.2">
       <c r="A38" s="53"/>
     </row>
-    <row r="39" spans="1:7" ht="12.75">
+    <row r="39" spans="1:7" ht="13.2">
       <c r="A39" s="53"/>
     </row>
-    <row r="40" spans="1:7" ht="12.75">
+    <row r="40" spans="1:7" ht="13.2">
       <c r="A40" s="53"/>
     </row>
-    <row r="41" spans="1:7" ht="12.75">
+    <row r="41" spans="1:7" ht="13.2">
       <c r="A41" s="53"/>
     </row>
-    <row r="42" spans="1:7" ht="12.75">
+    <row r="42" spans="1:7" ht="13.2">
       <c r="A42" s="53"/>
     </row>
-    <row r="43" spans="1:7" ht="12.75">
+    <row r="43" spans="1:7" ht="13.2">
       <c r="A43" s="53"/>
     </row>
-    <row r="44" spans="1:7" ht="12.75">
+    <row r="44" spans="1:7" ht="13.2">
       <c r="A44" s="53"/>
     </row>
-    <row r="45" spans="1:7" ht="12.75">
+    <row r="45" spans="1:7" ht="13.2">
       <c r="A45" s="53"/>
     </row>
-    <row r="46" spans="1:7" ht="12.75">
+    <row r="46" spans="1:7" ht="13.2">
       <c r="A46" s="53"/>
     </row>
-    <row r="47" spans="1:7" ht="12.75">
+    <row r="47" spans="1:7" ht="13.2">
       <c r="A47" s="53"/>
     </row>
-    <row r="48" spans="1:7" ht="12.75">
+    <row r="48" spans="1:7" ht="13.2">
       <c r="A48" s="53"/>
     </row>
-    <row r="49" spans="1:1" ht="12.75">
+    <row r="49" spans="1:1" ht="13.2">
       <c r="A49" s="53"/>
     </row>
-    <row r="50" spans="1:1" ht="12.75">
+    <row r="50" spans="1:1" ht="13.2">
       <c r="A50" s="53"/>
     </row>
-    <row r="51" spans="1:1" ht="12.75">
+    <row r="51" spans="1:1" ht="13.2">
       <c r="A51" s="53"/>
     </row>
-    <row r="52" spans="1:1" ht="12.75">
+    <row r="52" spans="1:1" ht="13.2">
       <c r="A52" s="53"/>
     </row>
-    <row r="53" spans="1:1" ht="12.75">
+    <row r="53" spans="1:1" ht="13.2">
       <c r="A53" s="53"/>
     </row>
-    <row r="54" spans="1:1" ht="12.75">
+    <row r="54" spans="1:1" ht="13.2">
       <c r="A54" s="53"/>
     </row>
-    <row r="55" spans="1:1" ht="12.75">
+    <row r="55" spans="1:1" ht="13.2">
       <c r="A55" s="53"/>
     </row>
-    <row r="56" spans="1:1" ht="12.75">
+    <row r="56" spans="1:1" ht="13.2">
       <c r="A56" s="53"/>
     </row>
-    <row r="57" spans="1:1" ht="12.75">
+    <row r="57" spans="1:1" ht="13.2">
       <c r="A57" s="53"/>
     </row>
-    <row r="58" spans="1:1" ht="12.75">
+    <row r="58" spans="1:1" ht="13.2">
       <c r="A58" s="53"/>
     </row>
-    <row r="59" spans="1:1" ht="12.75">
+    <row r="59" spans="1:1" ht="13.2">
       <c r="A59" s="53"/>
     </row>
-    <row r="60" spans="1:1" ht="12.75">
+    <row r="60" spans="1:1" ht="13.2">
       <c r="A60" s="53"/>
     </row>
-    <row r="61" spans="1:1" ht="12.75">
+    <row r="61" spans="1:1" ht="13.2">
       <c r="A61" s="53"/>
     </row>
-    <row r="62" spans="1:1" ht="12.75">
+    <row r="62" spans="1:1" ht="13.2">
       <c r="A62" s="53"/>
     </row>
-    <row r="63" spans="1:1" ht="12.75">
+    <row r="63" spans="1:1" ht="13.2">
       <c r="A63" s="53"/>
     </row>
-    <row r="64" spans="1:1" ht="12.75">
+    <row r="64" spans="1:1" ht="13.2">
       <c r="A64" s="53"/>
     </row>
-    <row r="65" spans="1:1" ht="12.75">
+    <row r="65" spans="1:1" ht="13.2">
       <c r="A65" s="53"/>
     </row>
-    <row r="66" spans="1:1" ht="12.75">
+    <row r="66" spans="1:1" ht="13.2">
       <c r="A66" s="53"/>
     </row>
-    <row r="67" spans="1:1" ht="12.75">
+    <row r="67" spans="1:1" ht="13.2">
       <c r="A67" s="53"/>
     </row>
-    <row r="68" spans="1:1" ht="12.75">
+    <row r="68" spans="1:1" ht="13.2">
       <c r="A68" s="53"/>
     </row>
-    <row r="69" spans="1:1" ht="12.75">
+    <row r="69" spans="1:1" ht="13.2">
       <c r="A69" s="53"/>
     </row>
-    <row r="70" spans="1:1" ht="12.75">
+    <row r="70" spans="1:1" ht="13.2">
       <c r="A70" s="53"/>
     </row>
-    <row r="71" spans="1:1" ht="12.75">
+    <row r="71" spans="1:1" ht="13.2">
       <c r="A71" s="53"/>
     </row>
-    <row r="72" spans="1:1" ht="12.75">
+    <row r="72" spans="1:1" ht="13.2">
       <c r="A72" s="53"/>
     </row>
-    <row r="73" spans="1:1" ht="12.75">
+    <row r="73" spans="1:1" ht="13.2">
       <c r="A73" s="53"/>
     </row>
-    <row r="74" spans="1:1" ht="12.75">
+    <row r="74" spans="1:1" ht="13.2">
       <c r="A74" s="53"/>
     </row>
-    <row r="75" spans="1:1" ht="12.75">
+    <row r="75" spans="1:1" ht="13.2">
       <c r="A75" s="53"/>
     </row>
-    <row r="76" spans="1:1" ht="12.75">
+    <row r="76" spans="1:1" ht="13.2">
       <c r="A76" s="53"/>
     </row>
-    <row r="77" spans="1:1" ht="12.75">
+    <row r="77" spans="1:1" ht="13.2">
       <c r="A77" s="53"/>
     </row>
-    <row r="78" spans="1:1" ht="12.75">
+    <row r="78" spans="1:1" ht="13.2">
       <c r="A78" s="53"/>
     </row>
-    <row r="79" spans="1:1" ht="12.75">
+    <row r="79" spans="1:1" ht="13.2">
       <c r="A79" s="53"/>
     </row>
-    <row r="80" spans="1:1" ht="12.75">
+    <row r="80" spans="1:1" ht="13.2">
       <c r="A80" s="53"/>
     </row>
-    <row r="81" spans="1:1" ht="12.75">
+    <row r="81" spans="1:1" ht="13.2">
       <c r="A81" s="53"/>
     </row>
-    <row r="82" spans="1:1" ht="12.75">
+    <row r="82" spans="1:1" ht="13.2">
       <c r="A82" s="53"/>
     </row>
-    <row r="83" spans="1:1" ht="12.75">
+    <row r="83" spans="1:1" ht="13.2">
       <c r="A83" s="53"/>
     </row>
-    <row r="84" spans="1:1" ht="12.75">
+    <row r="84" spans="1:1" ht="13.2">
       <c r="A84" s="53"/>
     </row>
-    <row r="85" spans="1:1" ht="12.75">
+    <row r="85" spans="1:1" ht="13.2">
       <c r="A85" s="53"/>
     </row>
-    <row r="86" spans="1:1" ht="12.75">
+    <row r="86" spans="1:1" ht="13.2">
       <c r="A86" s="53"/>
     </row>
-    <row r="87" spans="1:1" ht="12.75">
+    <row r="87" spans="1:1" ht="13.2">
       <c r="A87" s="53"/>
     </row>
-    <row r="88" spans="1:1" ht="12.75">
+    <row r="88" spans="1:1" ht="13.2">
       <c r="A88" s="53"/>
     </row>
-    <row r="89" spans="1:1" ht="12.75">
+    <row r="89" spans="1:1" ht="13.2">
       <c r="A89" s="53"/>
     </row>
-    <row r="90" spans="1:1" ht="12.75">
+    <row r="90" spans="1:1" ht="13.2">
       <c r="A90" s="53"/>
     </row>
-    <row r="91" spans="1:1" ht="12.75">
+    <row r="91" spans="1:1" ht="13.2">
       <c r="A91" s="53"/>
     </row>
-    <row r="92" spans="1:1" ht="12.75">
+    <row r="92" spans="1:1" ht="13.2">
       <c r="A92" s="53"/>
     </row>
-    <row r="93" spans="1:1" ht="12.75">
+    <row r="93" spans="1:1" ht="13.2">
       <c r="A93" s="53"/>
     </row>
-    <row r="94" spans="1:1" ht="12.75">
+    <row r="94" spans="1:1" ht="13.2">
       <c r="A94" s="53"/>
     </row>
-    <row r="95" spans="1:1" ht="12.75">
+    <row r="95" spans="1:1" ht="13.2">
       <c r="A95" s="53"/>
     </row>
-    <row r="96" spans="1:1" ht="12.75">
+    <row r="96" spans="1:1" ht="13.2">
       <c r="A96" s="53"/>
     </row>
-    <row r="97" spans="1:1" ht="12.75">
+    <row r="97" spans="1:1" ht="13.2">
       <c r="A97" s="53"/>
     </row>
-    <row r="98" spans="1:1" ht="12.75">
+    <row r="98" spans="1:1" ht="13.2">
       <c r="A98" s="53"/>
     </row>
-    <row r="99" spans="1:1" ht="12.75">
+    <row r="99" spans="1:1" ht="13.2">
       <c r="A99" s="53"/>
     </row>
-    <row r="100" spans="1:1" ht="12.75">
+    <row r="100" spans="1:1" ht="13.2">
       <c r="A100" s="53"/>
     </row>
-    <row r="101" spans="1:1" ht="12.75">
+    <row r="101" spans="1:1" ht="13.2">
       <c r="A101" s="53"/>
     </row>
-    <row r="102" spans="1:1" ht="12.75">
+    <row r="102" spans="1:1" ht="13.2">
       <c r="A102" s="53"/>
     </row>
-    <row r="103" spans="1:1" ht="12.75">
+    <row r="103" spans="1:1" ht="13.2">
       <c r="A103" s="53"/>
     </row>
-    <row r="104" spans="1:1" ht="12.75">
+    <row r="104" spans="1:1" ht="13.2">
       <c r="A104" s="53"/>
     </row>
-    <row r="105" spans="1:1" ht="12.75">
+    <row r="105" spans="1:1" ht="13.2">
       <c r="A105" s="53"/>
     </row>
-    <row r="106" spans="1:1" ht="12.75">
+    <row r="106" spans="1:1" ht="13.2">
       <c r="A106" s="53"/>
     </row>
-    <row r="107" spans="1:1" ht="12.75">
+    <row r="107" spans="1:1" ht="13.2">
       <c r="A107" s="53"/>
     </row>
-    <row r="108" spans="1:1" ht="12.75">
+    <row r="108" spans="1:1" ht="13.2">
       <c r="A108" s="53"/>
     </row>
-    <row r="109" spans="1:1" ht="12.75">
+    <row r="109" spans="1:1" ht="13.2">
       <c r="A109" s="53"/>
     </row>
-    <row r="110" spans="1:1" ht="12.75">
+    <row r="110" spans="1:1" ht="13.2">
       <c r="A110" s="53"/>
     </row>
-    <row r="111" spans="1:1" ht="12.75">
+    <row r="111" spans="1:1" ht="13.2">
       <c r="A111" s="53"/>
     </row>
-    <row r="112" spans="1:1" ht="12.75">
+    <row r="112" spans="1:1" ht="13.2">
       <c r="A112" s="53"/>
     </row>
-    <row r="113" spans="1:1" ht="12.75">
+    <row r="113" spans="1:1" ht="13.2">
       <c r="A113" s="53"/>
     </row>
-    <row r="114" spans="1:1" ht="12.75">
+    <row r="114" spans="1:1" ht="13.2">
       <c r="A114" s="53"/>
     </row>
-    <row r="115" spans="1:1" ht="12.75">
+    <row r="115" spans="1:1" ht="13.2">
       <c r="A115" s="53"/>
     </row>
-    <row r="116" spans="1:1" ht="12.75">
+    <row r="116" spans="1:1" ht="13.2">
       <c r="A116" s="53"/>
     </row>
-    <row r="117" spans="1:1" ht="12.75">
+    <row r="117" spans="1:1" ht="13.2">
       <c r="A117" s="53"/>
     </row>
-    <row r="118" spans="1:1" ht="12.75">
+    <row r="118" spans="1:1" ht="13.2">
       <c r="A118" s="53"/>
     </row>
-    <row r="119" spans="1:1" ht="12.75">
+    <row r="119" spans="1:1" ht="13.2">
       <c r="A119" s="53"/>
     </row>
-    <row r="120" spans="1:1" ht="12.75">
+    <row r="120" spans="1:1" ht="13.2">
       <c r="A120" s="53"/>
     </row>
-    <row r="121" spans="1:1" ht="12.75">
+    <row r="121" spans="1:1" ht="13.2">
       <c r="A121" s="53"/>
     </row>
-    <row r="122" spans="1:1" ht="12.75">
+    <row r="122" spans="1:1" ht="13.2">
       <c r="A122" s="53"/>
     </row>
-    <row r="123" spans="1:1" ht="12.75">
+    <row r="123" spans="1:1" ht="13.2">
       <c r="A123" s="53"/>
     </row>
-    <row r="124" spans="1:1" ht="12.75">
+    <row r="124" spans="1:1" ht="13.2">
       <c r="A124" s="53"/>
     </row>
-    <row r="125" spans="1:1" ht="12.75">
+    <row r="125" spans="1:1" ht="13.2">
       <c r="A125" s="53"/>
     </row>
-    <row r="126" spans="1:1" ht="12.75">
+    <row r="126" spans="1:1" ht="13.2">
       <c r="A126" s="53"/>
     </row>
-    <row r="127" spans="1:1" ht="12.75">
+    <row r="127" spans="1:1" ht="13.2">
       <c r="A127" s="53"/>
     </row>
-    <row r="128" spans="1:1" ht="12.75">
+    <row r="128" spans="1:1" ht="13.2">
       <c r="A128" s="53"/>
     </row>
-    <row r="129" spans="1:1" ht="12.75">
+    <row r="129" spans="1:1" ht="13.2">
       <c r="A129" s="53"/>
     </row>
-    <row r="130" spans="1:1" ht="12.75">
+    <row r="130" spans="1:1" ht="13.2">
       <c r="A130" s="53"/>
     </row>
-    <row r="131" spans="1:1" ht="12.75">
+    <row r="131" spans="1:1" ht="13.2">
       <c r="A131" s="53"/>
     </row>
-    <row r="132" spans="1:1" ht="12.75">
+    <row r="132" spans="1:1" ht="13.2">
       <c r="A132" s="53"/>
     </row>
-    <row r="133" spans="1:1" ht="12.75">
+    <row r="133" spans="1:1" ht="13.2">
       <c r="A133" s="53"/>
     </row>
-    <row r="134" spans="1:1" ht="12.75">
+    <row r="134" spans="1:1" ht="13.2">
       <c r="A134" s="53"/>
     </row>
-    <row r="135" spans="1:1" ht="12.75">
+    <row r="135" spans="1:1" ht="13.2">
       <c r="A135" s="53"/>
     </row>
-    <row r="136" spans="1:1" ht="12.75">
+    <row r="136" spans="1:1" ht="13.2">
       <c r="A136" s="53"/>
     </row>
-    <row r="137" spans="1:1" ht="12.75">
+    <row r="137" spans="1:1" ht="13.2">
       <c r="A137" s="53"/>
     </row>
-    <row r="138" spans="1:1" ht="12.75">
+    <row r="138" spans="1:1" ht="13.2">
       <c r="A138" s="53"/>
     </row>
-    <row r="139" spans="1:1" ht="12.75">
+    <row r="139" spans="1:1" ht="13.2">
       <c r="A139" s="53"/>
     </row>
-    <row r="140" spans="1:1" ht="12.75">
+    <row r="140" spans="1:1" ht="13.2">
       <c r="A140" s="53"/>
     </row>
-    <row r="141" spans="1:1" ht="12.75">
+    <row r="141" spans="1:1" ht="13.2">
       <c r="A141" s="53"/>
     </row>
-    <row r="142" spans="1:1" ht="12.75">
+    <row r="142" spans="1:1" ht="13.2">
       <c r="A142" s="53"/>
     </row>
-    <row r="143" spans="1:1" ht="12.75">
+    <row r="143" spans="1:1" ht="13.2">
       <c r="A143" s="53"/>
     </row>
-    <row r="144" spans="1:1" ht="12.75">
+    <row r="144" spans="1:1" ht="13.2">
       <c r="A144" s="53"/>
     </row>
-    <row r="145" spans="1:1" ht="12.75">
+    <row r="145" spans="1:1" ht="13.2">
       <c r="A145" s="53"/>
     </row>
-    <row r="146" spans="1:1" ht="12.75">
+    <row r="146" spans="1:1" ht="13.2">
       <c r="A146" s="53"/>
     </row>
-    <row r="147" spans="1:1" ht="12.75">
+    <row r="147" spans="1:1" ht="13.2">
       <c r="A147" s="53"/>
     </row>
-    <row r="148" spans="1:1" ht="12.75">
+    <row r="148" spans="1:1" ht="13.2">
       <c r="A148" s="53"/>
     </row>
-    <row r="149" spans="1:1" ht="12.75">
+    <row r="149" spans="1:1" ht="13.2">
       <c r="A149" s="53"/>
     </row>
-    <row r="150" spans="1:1" ht="12.75">
+    <row r="150" spans="1:1" ht="13.2">
       <c r="A150" s="53"/>
     </row>
-    <row r="151" spans="1:1" ht="12.75">
+    <row r="151" spans="1:1" ht="13.2">
       <c r="A151" s="53"/>
     </row>
-    <row r="152" spans="1:1" ht="12.75">
+    <row r="152" spans="1:1" ht="13.2">
       <c r="A152" s="53"/>
     </row>
-    <row r="153" spans="1:1" ht="12.75">
+    <row r="153" spans="1:1" ht="13.2">
       <c r="A153" s="53"/>
     </row>
-    <row r="154" spans="1:1" ht="12.75">
+    <row r="154" spans="1:1" ht="13.2">
       <c r="A154" s="53"/>
     </row>
-    <row r="155" spans="1:1" ht="12.75">
+    <row r="155" spans="1:1" ht="13.2">
       <c r="A155" s="53"/>
     </row>
-    <row r="156" spans="1:1" ht="12.75">
+    <row r="156" spans="1:1" ht="13.2">
       <c r="A156" s="53"/>
     </row>
-    <row r="157" spans="1:1" ht="12.75">
+    <row r="157" spans="1:1" ht="13.2">
       <c r="A157" s="53"/>
     </row>
-    <row r="158" spans="1:1" ht="12.75">
+    <row r="158" spans="1:1" ht="13.2">
       <c r="A158" s="53"/>
     </row>
-    <row r="159" spans="1:1" ht="12.75">
+    <row r="159" spans="1:1" ht="13.2">
       <c r="A159" s="53"/>
     </row>
-    <row r="160" spans="1:1" ht="12.75">
+    <row r="160" spans="1:1" ht="13.2">
       <c r="A160" s="53"/>
     </row>
-    <row r="161" spans="1:1" ht="12.75">
+    <row r="161" spans="1:1" ht="13.2">
       <c r="A161" s="53"/>
     </row>
-    <row r="162" spans="1:1" ht="12.75">
+    <row r="162" spans="1:1" ht="13.2">
       <c r="A162" s="53"/>
     </row>
-    <row r="163" spans="1:1" ht="12.75">
+    <row r="163" spans="1:1" ht="13.2">
       <c r="A163" s="53"/>
     </row>
-    <row r="164" spans="1:1" ht="12.75">
+    <row r="164" spans="1:1" ht="13.2">
       <c r="A164" s="53"/>
     </row>
-    <row r="165" spans="1:1" ht="12.75">
+    <row r="165" spans="1:1" ht="13.2">
       <c r="A165" s="53"/>
     </row>
-    <row r="166" spans="1:1" ht="12.75">
+    <row r="166" spans="1:1" ht="13.2">
       <c r="A166" s="53"/>
     </row>
-    <row r="167" spans="1:1" ht="12.75">
+    <row r="167" spans="1:1" ht="13.2">
       <c r="A167" s="53"/>
     </row>
-    <row r="168" spans="1:1" ht="12.75">
+    <row r="168" spans="1:1" ht="13.2">
       <c r="A168" s="53"/>
     </row>
-    <row r="169" spans="1:1" ht="12.75">
+    <row r="169" spans="1:1" ht="13.2">
       <c r="A169" s="53"/>
     </row>
-    <row r="170" spans="1:1" ht="12.75">
+    <row r="170" spans="1:1" ht="13.2">
       <c r="A170" s="53"/>
     </row>
-    <row r="171" spans="1:1" ht="12.75">
+    <row r="171" spans="1:1" ht="13.2">
       <c r="A171" s="53"/>
     </row>
-    <row r="172" spans="1:1" ht="12.75">
+    <row r="172" spans="1:1" ht="13.2">
       <c r="A172" s="53"/>
     </row>
-    <row r="173" spans="1:1" ht="12.75">
+    <row r="173" spans="1:1" ht="13.2">
       <c r="A173" s="53"/>
     </row>
-    <row r="174" spans="1:1" ht="12.75">
+    <row r="174" spans="1:1" ht="13.2">
       <c r="A174" s="53"/>
     </row>
-    <row r="175" spans="1:1" ht="12.75">
+    <row r="175" spans="1:1" ht="13.2">
       <c r="A175" s="53"/>
     </row>
-    <row r="176" spans="1:1" ht="12.75">
+    <row r="176" spans="1:1" ht="13.2">
       <c r="A176" s="53"/>
     </row>
-    <row r="177" spans="1:1" ht="12.75">
+    <row r="177" spans="1:1" ht="13.2">
       <c r="A177" s="53"/>
     </row>
-    <row r="178" spans="1:1" ht="12.75">
+    <row r="178" spans="1:1" ht="13.2">
       <c r="A178" s="53"/>
     </row>
-    <row r="179" spans="1:1" ht="12.75">
+    <row r="179" spans="1:1" ht="13.2">
       <c r="A179" s="53"/>
     </row>
-    <row r="180" spans="1:1" ht="12.75">
+    <row r="180" spans="1:1" ht="13.2">
       <c r="A180" s="53"/>
     </row>
-    <row r="181" spans="1:1" ht="12.75">
+    <row r="181" spans="1:1" ht="13.2">
       <c r="A181" s="53"/>
     </row>
-    <row r="182" spans="1:1" ht="12.75">
+    <row r="182" spans="1:1" ht="13.2">
       <c r="A182" s="53"/>
     </row>
-    <row r="183" spans="1:1" ht="12.75">
+    <row r="183" spans="1:1" ht="13.2">
       <c r="A183" s="53"/>
     </row>
-    <row r="184" spans="1:1" ht="12.75">
+    <row r="184" spans="1:1" ht="13.2">
       <c r="A184" s="53"/>
     </row>
-    <row r="185" spans="1:1" ht="12.75">
+    <row r="185" spans="1:1" ht="13.2">
       <c r="A185" s="53"/>
     </row>
-    <row r="186" spans="1:1" ht="12.75">
+    <row r="186" spans="1:1" ht="13.2">
       <c r="A186" s="53"/>
     </row>
-    <row r="187" spans="1:1" ht="12.75">
+    <row r="187" spans="1:1" ht="13.2">
       <c r="A187" s="53"/>
     </row>
-    <row r="188" spans="1:1" ht="12.75">
+    <row r="188" spans="1:1" ht="13.2">
       <c r="A188" s="53"/>
     </row>
-    <row r="189" spans="1:1" ht="12.75">
+    <row r="189" spans="1:1" ht="13.2">
       <c r="A189" s="53"/>
     </row>
-    <row r="190" spans="1:1" ht="12.75">
+    <row r="190" spans="1:1" ht="13.2">
       <c r="A190" s="53"/>
     </row>
-    <row r="191" spans="1:1" ht="12.75">
+    <row r="191" spans="1:1" ht="13.2">
       <c r="A191" s="53"/>
     </row>
-    <row r="192" spans="1:1" ht="12.75">
+    <row r="192" spans="1:1" ht="13.2">
       <c r="A192" s="53"/>
     </row>
-    <row r="193" spans="1:1" ht="12.75">
+    <row r="193" spans="1:1" ht="13.2">
       <c r="A193" s="53"/>
     </row>
-    <row r="194" spans="1:1" ht="12.75">
+    <row r="194" spans="1:1" ht="13.2">
       <c r="A194" s="53"/>
     </row>
-    <row r="195" spans="1:1" ht="12.75">
+    <row r="195" spans="1:1" ht="13.2">
       <c r="A195" s="53"/>
     </row>
-    <row r="196" spans="1:1" ht="12.75">
+    <row r="196" spans="1:1" ht="13.2">
       <c r="A196" s="53"/>
     </row>
-    <row r="197" spans="1:1" ht="12.75">
+    <row r="197" spans="1:1" ht="13.2">
       <c r="A197" s="53"/>
     </row>
-    <row r="198" spans="1:1" ht="12.75">
+    <row r="198" spans="1:1" ht="13.2">
       <c r="A198" s="53"/>
     </row>
-    <row r="199" spans="1:1" ht="12.75">
+    <row r="199" spans="1:1" ht="13.2">
       <c r="A199" s="53"/>
     </row>
-    <row r="200" spans="1:1" ht="12.75">
+    <row r="200" spans="1:1" ht="13.2">
       <c r="A200" s="53"/>
     </row>
-    <row r="201" spans="1:1" ht="12.75">
+    <row r="201" spans="1:1" ht="13.2">
       <c r="A201" s="53"/>
     </row>
-    <row r="202" spans="1:1" ht="12.75">
+    <row r="202" spans="1:1" ht="13.2">
       <c r="A202" s="53"/>
     </row>
-    <row r="203" spans="1:1" ht="12.75">
+    <row r="203" spans="1:1" ht="13.2">
       <c r="A203" s="53"/>
     </row>
-    <row r="204" spans="1:1" ht="12.75">
+    <row r="204" spans="1:1" ht="13.2">
       <c r="A204" s="53"/>
     </row>
-    <row r="205" spans="1:1" ht="12.75">
+    <row r="205" spans="1:1" ht="13.2">
       <c r="A205" s="53"/>
     </row>
-    <row r="206" spans="1:1" ht="12.75">
+    <row r="206" spans="1:1" ht="13.2">
       <c r="A206" s="53"/>
     </row>
-    <row r="207" spans="1:1" ht="12.75">
+    <row r="207" spans="1:1" ht="13.2">
       <c r="A207" s="53"/>
     </row>
-    <row r="208" spans="1:1" ht="12.75">
+    <row r="208" spans="1:1" ht="13.2">
       <c r="A208" s="53"/>
     </row>
-    <row r="209" spans="1:1" ht="12.75">
+    <row r="209" spans="1:1" ht="13.2">
       <c r="A209" s="53"/>
     </row>
-    <row r="210" spans="1:1" ht="12.75">
+    <row r="210" spans="1:1" ht="13.2">
       <c r="A210" s="53"/>
     </row>
-    <row r="211" spans="1:1" ht="12.75">
+    <row r="211" spans="1:1" ht="13.2">
       <c r="A211" s="53"/>
     </row>
-    <row r="212" spans="1:1" ht="12.75">
+    <row r="212" spans="1:1" ht="13.2">
       <c r="A212" s="53"/>
     </row>
-    <row r="213" spans="1:1" ht="12.75">
+    <row r="213" spans="1:1" ht="13.2">
       <c r="A213" s="53"/>
     </row>
-    <row r="214" spans="1:1" ht="12.75">
+    <row r="214" spans="1:1" ht="13.2">
       <c r="A214" s="53"/>
     </row>
-    <row r="215" spans="1:1" ht="12.75">
+    <row r="215" spans="1:1" ht="13.2">
       <c r="A215" s="53"/>
     </row>
-    <row r="216" spans="1:1" ht="12.75">
+    <row r="216" spans="1:1" ht="13.2">
       <c r="A216" s="53"/>
     </row>
-    <row r="217" spans="1:1" ht="12.75">
+    <row r="217" spans="1:1" ht="13.2">
       <c r="A217" s="53"/>
     </row>
-    <row r="218" spans="1:1" ht="12.75">
+    <row r="218" spans="1:1" ht="13.2">
       <c r="A218" s="53"/>
     </row>
-    <row r="219" spans="1:1" ht="12.75">
+    <row r="219" spans="1:1" ht="13.2">
       <c r="A219" s="53"/>
     </row>
-    <row r="220" spans="1:1" ht="12.75">
+    <row r="220" spans="1:1" ht="13.2">
       <c r="A220" s="53"/>
     </row>
-    <row r="221" spans="1:1" ht="12.75">
+    <row r="221" spans="1:1" ht="13.2">
       <c r="A221" s="53"/>
     </row>
-    <row r="222" spans="1:1" ht="12.75">
+    <row r="222" spans="1:1" ht="13.2">
       <c r="A222" s="53"/>
     </row>
-    <row r="223" spans="1:1" ht="12.75">
+    <row r="223" spans="1:1" ht="13.2">
       <c r="A223" s="53"/>
     </row>
-    <row r="224" spans="1:1" ht="12.75">
+    <row r="224" spans="1:1" ht="13.2">
       <c r="A224" s="53"/>
     </row>
-    <row r="225" spans="1:1" ht="12.75">
+    <row r="225" spans="1:1" ht="13.2">
       <c r="A225" s="53"/>
     </row>
-    <row r="226" spans="1:1" ht="12.75">
+    <row r="226" spans="1:1" ht="13.2">
       <c r="A226" s="53"/>
     </row>
-    <row r="227" spans="1:1" ht="12.75">
+    <row r="227" spans="1:1" ht="13.2">
       <c r="A227" s="53"/>
     </row>
-    <row r="228" spans="1:1" ht="12.75">
+    <row r="228" spans="1:1" ht="13.2">
       <c r="A228" s="53"/>
     </row>
-    <row r="229" spans="1:1" ht="12.75">
+    <row r="229" spans="1:1" ht="13.2">
       <c r="A229" s="53"/>
     </row>
-    <row r="230" spans="1:1" ht="12.75">
+    <row r="230" spans="1:1" ht="13.2">
       <c r="A230" s="53"/>
     </row>
-    <row r="231" spans="1:1" ht="12.75">
+    <row r="231" spans="1:1" ht="13.2">
       <c r="A231" s="53"/>
     </row>
-    <row r="232" spans="1:1" ht="12.75">
+    <row r="232" spans="1:1" ht="13.2">
       <c r="A232" s="53"/>
     </row>
-    <row r="233" spans="1:1" ht="12.75">
+    <row r="233" spans="1:1" ht="13.2">
       <c r="A233" s="53"/>
     </row>
-    <row r="234" spans="1:1" ht="12.75">
+    <row r="234" spans="1:1" ht="13.2">
       <c r="A234" s="53"/>
     </row>
-    <row r="235" spans="1:1" ht="12.75">
+    <row r="235" spans="1:1" ht="13.2">
       <c r="A235" s="53"/>
     </row>
-    <row r="236" spans="1:1" ht="12.75">
+    <row r="236" spans="1:1" ht="13.2">
       <c r="A236" s="53"/>
     </row>
-    <row r="237" spans="1:1" ht="12.75">
+    <row r="237" spans="1:1" ht="13.2">
       <c r="A237" s="53"/>
     </row>
-    <row r="238" spans="1:1" ht="12.75">
+    <row r="238" spans="1:1" ht="13.2">
       <c r="A238" s="53"/>
     </row>
-    <row r="239" spans="1:1" ht="12.75">
+    <row r="239" spans="1:1" ht="13.2">
       <c r="A239" s="53"/>
     </row>
-    <row r="240" spans="1:1" ht="12.75">
+    <row r="240" spans="1:1" ht="13.2">
       <c r="A240" s="53"/>
     </row>
-    <row r="241" spans="1:1" ht="12.75">
+    <row r="241" spans="1:1" ht="13.2">
       <c r="A241" s="53"/>
     </row>
-    <row r="242" spans="1:1" ht="12.75">
+    <row r="242" spans="1:1" ht="13.2">
       <c r="A242" s="53"/>
     </row>
-    <row r="243" spans="1:1" ht="12.75">
+    <row r="243" spans="1:1" ht="13.2">
       <c r="A243" s="53"/>
     </row>
-    <row r="244" spans="1:1" ht="12.75">
+    <row r="244" spans="1:1" ht="13.2">
       <c r="A244" s="53"/>
     </row>
-    <row r="245" spans="1:1" ht="12.75">
+    <row r="245" spans="1:1" ht="13.2">
       <c r="A245" s="53"/>
     </row>
-    <row r="246" spans="1:1" ht="12.75">
+    <row r="246" spans="1:1" ht="13.2">
       <c r="A246" s="53"/>
     </row>
-    <row r="247" spans="1:1" ht="12.75">
+    <row r="247" spans="1:1" ht="13.2">
       <c r="A247" s="53"/>
     </row>
-    <row r="248" spans="1:1" ht="12.75">
+    <row r="248" spans="1:1" ht="13.2">
       <c r="A248" s="53"/>
     </row>
-    <row r="249" spans="1:1" ht="12.75">
+    <row r="249" spans="1:1" ht="13.2">
       <c r="A249" s="53"/>
     </row>
-    <row r="250" spans="1:1" ht="12.75">
+    <row r="250" spans="1:1" ht="13.2">
       <c r="A250" s="53"/>
     </row>
-    <row r="251" spans="1:1" ht="12.75">
+    <row r="251" spans="1:1" ht="13.2">
       <c r="A251" s="53"/>
     </row>
-    <row r="252" spans="1:1" ht="12.75">
+    <row r="252" spans="1:1" ht="13.2">
       <c r="A252" s="53"/>
     </row>
-    <row r="253" spans="1:1" ht="12.75">
+    <row r="253" spans="1:1" ht="13.2">
       <c r="A253" s="53"/>
     </row>
-    <row r="254" spans="1:1" ht="12.75">
+    <row r="254" spans="1:1" ht="13.2">
       <c r="A254" s="53"/>
     </row>
-    <row r="255" spans="1:1" ht="12.75">
+    <row r="255" spans="1:1" ht="13.2">
       <c r="A255" s="53"/>
     </row>
-    <row r="256" spans="1:1" ht="12.75">
+    <row r="256" spans="1:1" ht="13.2">
       <c r="A256" s="53"/>
     </row>
-    <row r="257" spans="1:1" ht="12.75">
+    <row r="257" spans="1:1" ht="13.2">
       <c r="A257" s="53"/>
     </row>
-    <row r="258" spans="1:1" ht="12.75">
+    <row r="258" spans="1:1" ht="13.2">
       <c r="A258" s="53"/>
     </row>
-    <row r="259" spans="1:1" ht="12.75">
+    <row r="259" spans="1:1" ht="13.2">
       <c r="A259" s="53"/>
     </row>
-    <row r="260" spans="1:1" ht="12.75">
+    <row r="260" spans="1:1" ht="13.2">
       <c r="A260" s="53"/>
     </row>
-    <row r="261" spans="1:1" ht="12.75">
+    <row r="261" spans="1:1" ht="13.2">
       <c r="A261" s="53"/>
     </row>
-    <row r="262" spans="1:1" ht="12.75">
+    <row r="262" spans="1:1" ht="13.2">
       <c r="A262" s="53"/>
     </row>
-    <row r="263" spans="1:1" ht="12.75">
+    <row r="263" spans="1:1" ht="13.2">
       <c r="A263" s="53"/>
     </row>
-    <row r="264" spans="1:1" ht="12.75">
+    <row r="264" spans="1:1" ht="13.2">
       <c r="A264" s="53"/>
     </row>
-    <row r="265" spans="1:1" ht="12.75">
+    <row r="265" spans="1:1" ht="13.2">
       <c r="A265" s="53"/>
     </row>
-    <row r="266" spans="1:1" ht="12.75">
+    <row r="266" spans="1:1" ht="13.2">
       <c r="A266" s="53"/>
     </row>
-    <row r="267" spans="1:1" ht="12.75">
+    <row r="267" spans="1:1" ht="13.2">
       <c r="A267" s="53"/>
     </row>
-    <row r="268" spans="1:1" ht="12.75">
+    <row r="268" spans="1:1" ht="13.2">
       <c r="A268" s="53"/>
     </row>
-    <row r="269" spans="1:1" ht="12.75">
+    <row r="269" spans="1:1" ht="13.2">
       <c r="A269" s="53"/>
     </row>
-    <row r="270" spans="1:1" ht="12.75">
+    <row r="270" spans="1:1" ht="13.2">
       <c r="A270" s="53"/>
     </row>
-    <row r="271" spans="1:1" ht="12.75">
+    <row r="271" spans="1:1" ht="13.2">
       <c r="A271" s="53"/>
     </row>
-    <row r="272" spans="1:1" ht="12.75">
+    <row r="272" spans="1:1" ht="13.2">
       <c r="A272" s="53"/>
     </row>
-    <row r="273" spans="1:1" ht="12.75">
+    <row r="273" spans="1:1" ht="13.2">
       <c r="A273" s="53"/>
     </row>
-    <row r="274" spans="1:1" ht="12.75">
+    <row r="274" spans="1:1" ht="13.2">
       <c r="A274" s="53"/>
     </row>
-    <row r="275" spans="1:1" ht="12.75">
+    <row r="275" spans="1:1" ht="13.2">
       <c r="A275" s="53"/>
     </row>
-    <row r="276" spans="1:1" ht="12.75">
+    <row r="276" spans="1:1" ht="13.2">
       <c r="A276" s="53"/>
     </row>
-    <row r="277" spans="1:1" ht="12.75">
+    <row r="277" spans="1:1" ht="13.2">
       <c r="A277" s="53"/>
     </row>
-    <row r="278" spans="1:1" ht="12.75">
+    <row r="278" spans="1:1" ht="13.2">
       <c r="A278" s="53"/>
     </row>
-    <row r="279" spans="1:1" ht="12.75">
+    <row r="279" spans="1:1" ht="13.2">
       <c r="A279" s="53"/>
     </row>
-    <row r="280" spans="1:1" ht="12.75">
+    <row r="280" spans="1:1" ht="13.2">
       <c r="A280" s="53"/>
     </row>
-    <row r="281" spans="1:1" ht="12.75">
+    <row r="281" spans="1:1" ht="13.2">
       <c r="A281" s="53"/>
     </row>
-    <row r="282" spans="1:1" ht="12.75">
+    <row r="282" spans="1:1" ht="13.2">
       <c r="A282" s="53"/>
     </row>
-    <row r="283" spans="1:1" ht="12.75">
+    <row r="283" spans="1:1" ht="13.2">
       <c r="A283" s="53"/>
     </row>
-    <row r="284" spans="1:1" ht="12.75">
+    <row r="284" spans="1:1" ht="13.2">
       <c r="A284" s="53"/>
     </row>
-    <row r="285" spans="1:1" ht="12.75">
+    <row r="285" spans="1:1" ht="13.2">
       <c r="A285" s="53"/>
     </row>
-    <row r="286" spans="1:1" ht="12.75">
+    <row r="286" spans="1:1" ht="13.2">
       <c r="A286" s="53"/>
     </row>
-    <row r="287" spans="1:1" ht="12.75">
+    <row r="287" spans="1:1" ht="13.2">
       <c r="A287" s="53"/>
     </row>
-    <row r="288" spans="1:1" ht="12.75">
+    <row r="288" spans="1:1" ht="13.2">
       <c r="A288" s="53"/>
     </row>
-    <row r="289" spans="1:1" ht="12.75">
+    <row r="289" spans="1:1" ht="13.2">
       <c r="A289" s="53"/>
     </row>
-    <row r="290" spans="1:1" ht="12.75">
+    <row r="290" spans="1:1" ht="13.2">
       <c r="A290" s="53"/>
     </row>
-    <row r="291" spans="1:1" ht="12.75">
+    <row r="291" spans="1:1" ht="13.2">
       <c r="A291" s="53"/>
     </row>
-    <row r="292" spans="1:1" ht="12.75">
+    <row r="292" spans="1:1" ht="13.2">
       <c r="A292" s="53"/>
     </row>
-    <row r="293" spans="1:1" ht="12.75">
+    <row r="293" spans="1:1" ht="13.2">
       <c r="A293" s="53"/>
     </row>
-    <row r="294" spans="1:1" ht="12.75">
+    <row r="294" spans="1:1" ht="13.2">
       <c r="A294" s="53"/>
     </row>
-    <row r="295" spans="1:1" ht="12.75">
+    <row r="295" spans="1:1" ht="13.2">
       <c r="A295" s="53"/>
     </row>
-    <row r="296" spans="1:1" ht="12.75">
+    <row r="296" spans="1:1" ht="13.2">
       <c r="A296" s="53"/>
     </row>
-    <row r="297" spans="1:1" ht="12.75">
+    <row r="297" spans="1:1" ht="13.2">
       <c r="A297" s="53"/>
     </row>
-    <row r="298" spans="1:1" ht="12.75">
+    <row r="298" spans="1:1" ht="13.2">
       <c r="A298" s="53"/>
     </row>
-    <row r="299" spans="1:1" ht="12.75">
+    <row r="299" spans="1:1" ht="13.2">
       <c r="A299" s="53"/>
     </row>
-    <row r="300" spans="1:1" ht="12.75">
+    <row r="300" spans="1:1" ht="13.2">
       <c r="A300" s="53"/>
     </row>
-    <row r="301" spans="1:1" ht="12.75">
+    <row r="301" spans="1:1" ht="13.2">
       <c r="A301" s="53"/>
     </row>
-    <row r="302" spans="1:1" ht="12.75">
+    <row r="302" spans="1:1" ht="13.2">
       <c r="A302" s="53"/>
     </row>
-    <row r="303" spans="1:1" ht="12.75">
+    <row r="303" spans="1:1" ht="13.2">
       <c r="A303" s="53"/>
     </row>
-    <row r="304" spans="1:1" ht="12.75">
+    <row r="304" spans="1:1" ht="13.2">
       <c r="A304" s="53"/>
     </row>
-    <row r="305" spans="1:1" ht="12.75">
+    <row r="305" spans="1:1" ht="13.2">
       <c r="A305" s="53"/>
     </row>
-    <row r="306" spans="1:1" ht="12.75">
+    <row r="306" spans="1:1" ht="13.2">
       <c r="A306" s="53"/>
     </row>
-    <row r="307" spans="1:1" ht="12.75">
+    <row r="307" spans="1:1" ht="13.2">
       <c r="A307" s="53"/>
     </row>
-    <row r="308" spans="1:1" ht="12.75">
+    <row r="308" spans="1:1" ht="13.2">
       <c r="A308" s="53"/>
     </row>
-    <row r="309" spans="1:1" ht="12.75">
+    <row r="309" spans="1:1" ht="13.2">
       <c r="A309" s="53"/>
     </row>
-    <row r="310" spans="1:1" ht="12.75">
+    <row r="310" spans="1:1" ht="13.2">
       <c r="A310" s="53"/>
     </row>
-    <row r="311" spans="1:1" ht="12.75">
+    <row r="311" spans="1:1" ht="13.2">
       <c r="A311" s="53"/>
     </row>
-    <row r="312" spans="1:1" ht="12.75">
+    <row r="312" spans="1:1" ht="13.2">
       <c r="A312" s="53"/>
     </row>
-    <row r="313" spans="1:1" ht="12.75">
+    <row r="313" spans="1:1" ht="13.2">
       <c r="A313" s="53"/>
     </row>
-    <row r="314" spans="1:1" ht="12.75">
+    <row r="314" spans="1:1" ht="13.2">
       <c r="A314" s="53"/>
     </row>
-    <row r="315" spans="1:1" ht="12.75">
+    <row r="315" spans="1:1" ht="13.2">
       <c r="A315" s="53"/>
     </row>
-    <row r="316" spans="1:1" ht="12.75">
+    <row r="316" spans="1:1" ht="13.2">
       <c r="A316" s="53"/>
     </row>
-    <row r="317" spans="1:1" ht="12.75">
+    <row r="317" spans="1:1" ht="13.2">
       <c r="A317" s="53"/>
     </row>
-    <row r="318" spans="1:1" ht="12.75">
+    <row r="318" spans="1:1" ht="13.2">
       <c r="A318" s="53"/>
     </row>
-    <row r="319" spans="1:1" ht="12.75">
+    <row r="319" spans="1:1" ht="13.2">
       <c r="A319" s="53"/>
     </row>
-    <row r="320" spans="1:1" ht="12.75">
+    <row r="320" spans="1:1" ht="13.2">
       <c r="A320" s="53"/>
     </row>
-    <row r="321" spans="1:1" ht="12.75">
+    <row r="321" spans="1:1" ht="13.2">
       <c r="A321" s="53"/>
     </row>
-    <row r="322" spans="1:1" ht="12.75">
+    <row r="322" spans="1:1" ht="13.2">
       <c r="A322" s="53"/>
     </row>
-    <row r="323" spans="1:1" ht="12.75">
+    <row r="323" spans="1:1" ht="13.2">
       <c r="A323" s="53"/>
     </row>
-    <row r="324" spans="1:1" ht="12.75">
+    <row r="324" spans="1:1" ht="13.2">
       <c r="A324" s="53"/>
     </row>
-    <row r="325" spans="1:1" ht="12.75">
+    <row r="325" spans="1:1" ht="13.2">
       <c r="A325" s="53"/>
     </row>
-    <row r="326" spans="1:1" ht="12.75">
+    <row r="326" spans="1:1" ht="13.2">
       <c r="A326" s="53"/>
     </row>
-    <row r="327" spans="1:1" ht="12.75">
+    <row r="327" spans="1:1" ht="13.2">
       <c r="A327" s="53"/>
     </row>
-    <row r="328" spans="1:1" ht="12.75">
+    <row r="328" spans="1:1" ht="13.2">
       <c r="A328" s="53"/>
     </row>
-    <row r="329" spans="1:1" ht="12.75">
+    <row r="329" spans="1:1" ht="13.2">
       <c r="A329" s="53"/>
     </row>
-    <row r="330" spans="1:1" ht="12.75">
+    <row r="330" spans="1:1" ht="13.2">
       <c r="A330" s="53"/>
     </row>
-    <row r="331" spans="1:1" ht="12.75">
+    <row r="331" spans="1:1" ht="13.2">
       <c r="A331" s="53"/>
     </row>
-    <row r="332" spans="1:1" ht="12.75">
+    <row r="332" spans="1:1" ht="13.2">
       <c r="A332" s="53"/>
     </row>
-    <row r="333" spans="1:1" ht="12.75">
+    <row r="333" spans="1:1" ht="13.2">
       <c r="A333" s="53"/>
     </row>
-    <row r="334" spans="1:1" ht="12.75">
+    <row r="334" spans="1:1" ht="13.2">
       <c r="A334" s="53"/>
     </row>
-    <row r="335" spans="1:1" ht="12.75">
+    <row r="335" spans="1:1" ht="13.2">
       <c r="A335" s="53"/>
     </row>
-    <row r="336" spans="1:1" ht="12.75">
+    <row r="336" spans="1:1" ht="13.2">
       <c r="A336" s="53"/>
     </row>
-    <row r="337" spans="1:1" ht="12.75">
+    <row r="337" spans="1:1" ht="13.2">
       <c r="A337" s="53"/>
     </row>
-    <row r="338" spans="1:1" ht="12.75">
+    <row r="338" spans="1:1" ht="13.2">
       <c r="A338" s="53"/>
     </row>
-    <row r="339" spans="1:1" ht="12.75">
+    <row r="339" spans="1:1" ht="13.2">
       <c r="A339" s="53"/>
     </row>
-    <row r="340" spans="1:1" ht="12.75">
+    <row r="340" spans="1:1" ht="13.2">
       <c r="A340" s="53"/>
     </row>
-    <row r="341" spans="1:1" ht="12.75">
+    <row r="341" spans="1:1" ht="13.2">
       <c r="A341" s="53"/>
     </row>
-    <row r="342" spans="1:1" ht="12.75">
+    <row r="342" spans="1:1" ht="13.2">
       <c r="A342" s="53"/>
     </row>
-    <row r="343" spans="1:1" ht="12.75">
+    <row r="343" spans="1:1" ht="13.2">
       <c r="A343" s="53"/>
     </row>
-    <row r="344" spans="1:1" ht="12.75">
+    <row r="344" spans="1:1" ht="13.2">
       <c r="A344" s="53"/>
     </row>
-    <row r="345" spans="1:1" ht="12.75">
+    <row r="345" spans="1:1" ht="13.2">
       <c r="A345" s="53"/>
     </row>
-    <row r="346" spans="1:1" ht="12.75">
+    <row r="346" spans="1:1" ht="13.2">
       <c r="A346" s="53"/>
     </row>
-    <row r="347" spans="1:1" ht="12.75">
+    <row r="347" spans="1:1" ht="13.2">
       <c r="A347" s="53"/>
     </row>
-    <row r="348" spans="1:1" ht="12.75">
+    <row r="348" spans="1:1" ht="13.2">
       <c r="A348" s="53"/>
     </row>
-    <row r="349" spans="1:1" ht="12.75">
+    <row r="349" spans="1:1" ht="13.2">
       <c r="A349" s="53"/>
     </row>
-    <row r="350" spans="1:1" ht="12.75">
+    <row r="350" spans="1:1" ht="13.2">
       <c r="A350" s="53"/>
     </row>
-    <row r="351" spans="1:1" ht="12.75">
+    <row r="351" spans="1:1" ht="13.2">
       <c r="A351" s="53"/>
     </row>
-    <row r="352" spans="1:1" ht="12.75">
+    <row r="352" spans="1:1" ht="13.2">
       <c r="A352" s="53"/>
     </row>
-    <row r="353" spans="1:1" ht="12.75">
+    <row r="353" spans="1:1" ht="13.2">
       <c r="A353" s="53"/>
     </row>
-    <row r="354" spans="1:1" ht="12.75">
+    <row r="354" spans="1:1" ht="13.2">
       <c r="A354" s="53"/>
     </row>
-    <row r="355" spans="1:1" ht="12.75">
+    <row r="355" spans="1:1" ht="13.2">
       <c r="A355" s="53"/>
     </row>
-    <row r="356" spans="1:1" ht="12.75">
+    <row r="356" spans="1:1" ht="13.2">
       <c r="A356" s="53"/>
     </row>
-    <row r="357" spans="1:1" ht="12.75">
+    <row r="357" spans="1:1" ht="13.2">
       <c r="A357" s="53"/>
     </row>
-    <row r="358" spans="1:1" ht="12.75">
+    <row r="358" spans="1:1" ht="13.2">
       <c r="A358" s="53"/>
     </row>
-    <row r="359" spans="1:1" ht="12.75">
+    <row r="359" spans="1:1" ht="13.2">
       <c r="A359" s="53"/>
     </row>
-    <row r="360" spans="1:1" ht="12.75">
+    <row r="360" spans="1:1" ht="13.2">
       <c r="A360" s="53"/>
     </row>
-    <row r="361" spans="1:1" ht="12.75">
+    <row r="361" spans="1:1" ht="13.2">
       <c r="A361" s="53"/>
     </row>
-    <row r="362" spans="1:1" ht="12.75">
+    <row r="362" spans="1:1" ht="13.2">
       <c r="A362" s="53"/>
     </row>
-    <row r="363" spans="1:1" ht="12.75">
+    <row r="363" spans="1:1" ht="13.2">
       <c r="A363" s="53"/>
     </row>
-    <row r="364" spans="1:1" ht="12.75">
+    <row r="364" spans="1:1" ht="13.2">
       <c r="A364" s="53"/>
     </row>
-    <row r="365" spans="1:1" ht="12.75">
+    <row r="365" spans="1:1" ht="13.2">
       <c r="A365" s="53"/>
     </row>
-    <row r="366" spans="1:1" ht="12.75">
+    <row r="366" spans="1:1" ht="13.2">
       <c r="A366" s="53"/>
     </row>
-    <row r="367" spans="1:1" ht="12.75">
+    <row r="367" spans="1:1" ht="13.2">
       <c r="A367" s="53"/>
     </row>
-    <row r="368" spans="1:1" ht="12.75">
+    <row r="368" spans="1:1" ht="13.2">
       <c r="A368" s="53"/>
     </row>
-    <row r="369" spans="1:1" ht="12.75">
+    <row r="369" spans="1:1" ht="13.2">
       <c r="A369" s="53"/>
     </row>
-    <row r="370" spans="1:1" ht="12.75">
+    <row r="370" spans="1:1" ht="13.2">
       <c r="A370" s="53"/>
     </row>
-    <row r="371" spans="1:1" ht="12.75">
+    <row r="371" spans="1:1" ht="13.2">
       <c r="A371" s="53"/>
     </row>
-    <row r="372" spans="1:1" ht="12.75">
+    <row r="372" spans="1:1" ht="13.2">
       <c r="A372" s="53"/>
     </row>
-    <row r="373" spans="1:1" ht="12.75">
+    <row r="373" spans="1:1" ht="13.2">
       <c r="A373" s="53"/>
     </row>
-    <row r="374" spans="1:1" ht="12.75">
+    <row r="374" spans="1:1" ht="13.2">
       <c r="A374" s="53"/>
     </row>
-    <row r="375" spans="1:1" ht="12.75">
+    <row r="375" spans="1:1" ht="13.2">
       <c r="A375" s="53"/>
     </row>
-    <row r="376" spans="1:1" ht="12.75">
+    <row r="376" spans="1:1" ht="13.2">
       <c r="A376" s="53"/>
     </row>
-    <row r="377" spans="1:1" ht="12.75">
+    <row r="377" spans="1:1" ht="13.2">
       <c r="A377" s="53"/>
     </row>
-    <row r="378" spans="1:1" ht="12.75">
+    <row r="378" spans="1:1" ht="13.2">
       <c r="A378" s="53"/>
     </row>
-    <row r="379" spans="1:1" ht="12.75">
+    <row r="379" spans="1:1" ht="13.2">
       <c r="A379" s="53"/>
     </row>
-    <row r="380" spans="1:1" ht="12.75">
+    <row r="380" spans="1:1" ht="13.2">
       <c r="A380" s="53"/>
     </row>
-    <row r="381" spans="1:1" ht="12.75">
+    <row r="381" spans="1:1" ht="13.2">
       <c r="A381" s="53"/>
     </row>
-    <row r="382" spans="1:1" ht="12.75">
+    <row r="382" spans="1:1" ht="13.2">
       <c r="A382" s="53"/>
     </row>
-    <row r="383" spans="1:1" ht="12.75">
+    <row r="383" spans="1:1" ht="13.2">
       <c r="A383" s="53"/>
     </row>
-    <row r="384" spans="1:1" ht="12.75">
+    <row r="384" spans="1:1" ht="13.2">
       <c r="A384" s="53"/>
     </row>
-    <row r="385" spans="1:1" ht="12.75">
+    <row r="385" spans="1:1" ht="13.2">
       <c r="A385" s="53"/>
     </row>
-    <row r="386" spans="1:1" ht="12.75">
+    <row r="386" spans="1:1" ht="13.2">
       <c r="A386" s="53"/>
     </row>
-    <row r="387" spans="1:1" ht="12.75">
+    <row r="387" spans="1:1" ht="13.2">
       <c r="A387" s="53"/>
     </row>
-    <row r="388" spans="1:1" ht="12.75">
+    <row r="388" spans="1:1" ht="13.2">
       <c r="A388" s="53"/>
     </row>
-    <row r="389" spans="1:1" ht="12.75">
+    <row r="389" spans="1:1" ht="13.2">
       <c r="A389" s="53"/>
     </row>
-    <row r="390" spans="1:1" ht="12.75">
+    <row r="390" spans="1:1" ht="13.2">
       <c r="A390" s="53"/>
     </row>
-    <row r="391" spans="1:1" ht="12.75">
+    <row r="391" spans="1:1" ht="13.2">
       <c r="A391" s="53"/>
     </row>
-    <row r="392" spans="1:1" ht="12.75">
+    <row r="392" spans="1:1" ht="13.2">
       <c r="A392" s="53"/>
     </row>
-    <row r="393" spans="1:1" ht="12.75">
+    <row r="393" spans="1:1" ht="13.2">
       <c r="A393" s="53"/>
     </row>
-    <row r="394" spans="1:1" ht="12.75">
+    <row r="394" spans="1:1" ht="13.2">
       <c r="A394" s="53"/>
     </row>
-    <row r="395" spans="1:1" ht="12.75">
+    <row r="395" spans="1:1" ht="13.2">
       <c r="A395" s="53"/>
     </row>
-    <row r="396" spans="1:1" ht="12.75">
+    <row r="396" spans="1:1" ht="13.2">
       <c r="A396" s="53"/>
     </row>
-    <row r="397" spans="1:1" ht="12.75">
+    <row r="397" spans="1:1" ht="13.2">
       <c r="A397" s="53"/>
     </row>
-    <row r="398" spans="1:1" ht="12.75">
+    <row r="398" spans="1:1" ht="13.2">
       <c r="A398" s="53"/>
     </row>
-    <row r="399" spans="1:1" ht="12.75">
+    <row r="399" spans="1:1" ht="13.2">
       <c r="A399" s="53"/>
     </row>
-    <row r="400" spans="1:1" ht="12.75">
+    <row r="400" spans="1:1" ht="13.2">
       <c r="A400" s="53"/>
     </row>
-    <row r="401" spans="1:1" ht="12.75">
+    <row r="401" spans="1:1" ht="13.2">
       <c r="A401" s="53"/>
     </row>
-    <row r="402" spans="1:1" ht="12.75">
+    <row r="402" spans="1:1" ht="13.2">
       <c r="A402" s="53"/>
     </row>
-    <row r="403" spans="1:1" ht="12.75">
+    <row r="403" spans="1:1" ht="13.2">
       <c r="A403" s="53"/>
     </row>
-    <row r="404" spans="1:1" ht="12.75">
+    <row r="404" spans="1:1" ht="13.2">
       <c r="A404" s="53"/>
     </row>
-    <row r="405" spans="1:1" ht="12.75">
+    <row r="405" spans="1:1" ht="13.2">
       <c r="A405" s="53"/>
     </row>
-    <row r="406" spans="1:1" ht="12.75">
+    <row r="406" spans="1:1" ht="13.2">
       <c r="A406" s="53"/>
     </row>
-    <row r="407" spans="1:1" ht="12.75">
+    <row r="407" spans="1:1" ht="13.2">
       <c r="A407" s="53"/>
     </row>
-    <row r="408" spans="1:1" ht="12.75">
+    <row r="408" spans="1:1" ht="13.2">
       <c r="A408" s="53"/>
     </row>
-    <row r="409" spans="1:1" ht="12.75">
+    <row r="409" spans="1:1" ht="13.2">
       <c r="A409" s="53"/>
     </row>
-    <row r="410" spans="1:1" ht="12.75">
+    <row r="410" spans="1:1" ht="13.2">
       <c r="A410" s="53"/>
     </row>
-    <row r="411" spans="1:1" ht="12.75">
+    <row r="411" spans="1:1" ht="13.2">
       <c r="A411" s="53"/>
     </row>
-    <row r="412" spans="1:1" ht="12.75">
+    <row r="412" spans="1:1" ht="13.2">
       <c r="A412" s="53"/>
     </row>
-    <row r="413" spans="1:1" ht="12.75">
+    <row r="413" spans="1:1" ht="13.2">
       <c r="A413" s="53"/>
     </row>
-    <row r="414" spans="1:1" ht="12.75">
+    <row r="414" spans="1:1" ht="13.2">
       <c r="A414" s="53"/>
     </row>
-    <row r="415" spans="1:1" ht="12.75">
+    <row r="415" spans="1:1" ht="13.2">
       <c r="A415" s="53"/>
     </row>
-    <row r="416" spans="1:1" ht="12.75">
+    <row r="416" spans="1:1" ht="13.2">
       <c r="A416" s="53"/>
     </row>
-    <row r="417" spans="1:1" ht="12.75">
+    <row r="417" spans="1:1" ht="13.2">
       <c r="A417" s="53"/>
     </row>
-    <row r="418" spans="1:1" ht="12.75">
+    <row r="418" spans="1:1" ht="13.2">
       <c r="A418" s="53"/>
     </row>
-    <row r="419" spans="1:1" ht="12.75">
+    <row r="419" spans="1:1" ht="13.2">
       <c r="A419" s="53"/>
     </row>
-    <row r="420" spans="1:1" ht="12.75">
+    <row r="420" spans="1:1" ht="13.2">
       <c r="A420" s="53"/>
     </row>
-    <row r="421" spans="1:1" ht="12.75">
+    <row r="421" spans="1:1" ht="13.2">
       <c r="A421" s="53"/>
     </row>
-    <row r="422" spans="1:1" ht="12.75">
+    <row r="422" spans="1:1" ht="13.2">
       <c r="A422" s="53"/>
     </row>
-    <row r="423" spans="1:1" ht="12.75">
+    <row r="423" spans="1:1" ht="13.2">
       <c r="A423" s="53"/>
     </row>
-    <row r="424" spans="1:1" ht="12.75">
+    <row r="424" spans="1:1" ht="13.2">
       <c r="A424" s="53"/>
     </row>
-    <row r="425" spans="1:1" ht="12.75">
+    <row r="425" spans="1:1" ht="13.2">
       <c r="A425" s="53"/>
     </row>
-    <row r="426" spans="1:1" ht="12.75">
+    <row r="426" spans="1:1" ht="13.2">
       <c r="A426" s="53"/>
     </row>
-    <row r="427" spans="1:1" ht="12.75">
+    <row r="427" spans="1:1" ht="13.2">
       <c r="A427" s="53"/>
     </row>
-    <row r="428" spans="1:1" ht="12.75">
+    <row r="428" spans="1:1" ht="13.2">
       <c r="A428" s="53"/>
     </row>
-    <row r="429" spans="1:1" ht="12.75">
+    <row r="429" spans="1:1" ht="13.2">
       <c r="A429" s="53"/>
     </row>
-    <row r="430" spans="1:1" ht="12.75">
+    <row r="430" spans="1:1" ht="13.2">
       <c r="A430" s="53"/>
     </row>
-    <row r="431" spans="1:1" ht="12.75">
+    <row r="431" spans="1:1" ht="13.2">
       <c r="A431" s="53"/>
     </row>
-    <row r="432" spans="1:1" ht="12.75">
+    <row r="432" spans="1:1" ht="13.2">
       <c r="A432" s="53"/>
     </row>
-    <row r="433" spans="1:1" ht="12.75">
+    <row r="433" spans="1:1" ht="13.2">
       <c r="A433" s="53"/>
     </row>
-    <row r="434" spans="1:1" ht="12.75">
+    <row r="434" spans="1:1" ht="13.2">
       <c r="A434" s="53"/>
     </row>
-    <row r="435" spans="1:1" ht="12.75">
+    <row r="435" spans="1:1" ht="13.2">
       <c r="A435" s="53"/>
     </row>
-    <row r="436" spans="1:1" ht="12.75">
+    <row r="436" spans="1:1" ht="13.2">
       <c r="A436" s="53"/>
     </row>
-    <row r="437" spans="1:1" ht="12.75">
+    <row r="437" spans="1:1" ht="13.2">
       <c r="A437" s="53"/>
     </row>
-    <row r="438" spans="1:1" ht="12.75">
+    <row r="438" spans="1:1" ht="13.2">
       <c r="A438" s="53"/>
     </row>
-    <row r="439" spans="1:1" ht="12.75">
+    <row r="439" spans="1:1" ht="13.2">
       <c r="A439" s="53"/>
     </row>
-    <row r="440" spans="1:1" ht="12.75">
+    <row r="440" spans="1:1" ht="13.2">
       <c r="A440" s="53"/>
     </row>
-    <row r="441" spans="1:1" ht="12.75">
+    <row r="441" spans="1:1" ht="13.2">
       <c r="A441" s="53"/>
     </row>
-    <row r="442" spans="1:1" ht="12.75">
+    <row r="442" spans="1:1" ht="13.2">
       <c r="A442" s="53"/>
     </row>
-    <row r="443" spans="1:1" ht="12.75">
+    <row r="443" spans="1:1" ht="13.2">
       <c r="A443" s="53"/>
     </row>
-    <row r="444" spans="1:1" ht="12.75">
+    <row r="444" spans="1:1" ht="13.2">
       <c r="A444" s="53"/>
     </row>
-    <row r="445" spans="1:1" ht="12.75">
+    <row r="445" spans="1:1" ht="13.2">
       <c r="A445" s="53"/>
     </row>
-    <row r="446" spans="1:1" ht="12.75">
+    <row r="446" spans="1:1" ht="13.2">
       <c r="A446" s="53"/>
     </row>
-    <row r="447" spans="1:1" ht="12.75">
+    <row r="447" spans="1:1" ht="13.2">
       <c r="A447" s="53"/>
     </row>
-    <row r="448" spans="1:1" ht="12.75">
+    <row r="448" spans="1:1" ht="13.2">
       <c r="A448" s="53"/>
     </row>
-    <row r="449" spans="1:1" ht="12.75">
+    <row r="449" spans="1:1" ht="13.2">
       <c r="A449" s="53"/>
     </row>
-    <row r="450" spans="1:1" ht="12.75">
+    <row r="450" spans="1:1" ht="13.2">
       <c r="A450" s="53"/>
     </row>
-    <row r="451" spans="1:1" ht="12.75">
+    <row r="451" spans="1:1" ht="13.2">
       <c r="A451" s="53"/>
     </row>
-    <row r="452" spans="1:1" ht="12.75">
+    <row r="452" spans="1:1" ht="13.2">
       <c r="A452" s="53"/>
     </row>
-    <row r="453" spans="1:1" ht="12.75">
+    <row r="453" spans="1:1" ht="13.2">
       <c r="A453" s="53"/>
     </row>
-    <row r="454" spans="1:1" ht="12.75">
+    <row r="454" spans="1:1" ht="13.2">
       <c r="A454" s="53"/>
     </row>
-    <row r="455" spans="1:1" ht="12.75">
+    <row r="455" spans="1:1" ht="13.2">
       <c r="A455" s="53"/>
     </row>
-    <row r="456" spans="1:1" ht="12.75">
+    <row r="456" spans="1:1" ht="13.2">
       <c r="A456" s="53"/>
     </row>
-    <row r="457" spans="1:1" ht="12.75">
+    <row r="457" spans="1:1" ht="13.2">
       <c r="A457" s="53"/>
     </row>
-    <row r="458" spans="1:1" ht="12.75">
+    <row r="458" spans="1:1" ht="13.2">
       <c r="A458" s="53"/>
     </row>
-    <row r="459" spans="1:1" ht="12.75">
+    <row r="459" spans="1:1" ht="13.2">
       <c r="A459" s="53"/>
     </row>
-    <row r="460" spans="1:1" ht="12.75">
+    <row r="460" spans="1:1" ht="13.2">
       <c r="A460" s="53"/>
     </row>
-    <row r="461" spans="1:1" ht="12.75">
+    <row r="461" spans="1:1" ht="13.2">
       <c r="A461" s="53"/>
     </row>
-    <row r="462" spans="1:1" ht="12.75">
+    <row r="462" spans="1:1" ht="13.2">
       <c r="A462" s="53"/>
     </row>
-    <row r="463" spans="1:1" ht="12.75">
+    <row r="463" spans="1:1" ht="13.2">
       <c r="A463" s="53"/>
     </row>
-    <row r="464" spans="1:1" ht="12.75">
+    <row r="464" spans="1:1" ht="13.2">
       <c r="A464" s="53"/>
     </row>
-    <row r="465" spans="1:1" ht="12.75">
+    <row r="465" spans="1:1" ht="13.2">
       <c r="A465" s="53"/>
     </row>
-    <row r="466" spans="1:1" ht="12.75">
+    <row r="466" spans="1:1" ht="13.2">
       <c r="A466" s="53"/>
     </row>
-    <row r="467" spans="1:1" ht="12.75">
+    <row r="467" spans="1:1" ht="13.2">
       <c r="A467" s="53"/>
     </row>
-    <row r="468" spans="1:1" ht="12.75">
+    <row r="468" spans="1:1" ht="13.2">
       <c r="A468" s="53"/>
     </row>
-    <row r="469" spans="1:1" ht="12.75">
+    <row r="469" spans="1:1" ht="13.2">
       <c r="A469" s="53"/>
     </row>
-    <row r="470" spans="1:1" ht="12.75">
+    <row r="470" spans="1:1" ht="13.2">
       <c r="A470" s="53"/>
     </row>
-    <row r="471" spans="1:1" ht="12.75">
+    <row r="471" spans="1:1" ht="13.2">
       <c r="A471" s="53"/>
     </row>
-    <row r="472" spans="1:1" ht="12.75">
+    <row r="472" spans="1:1" ht="13.2">
       <c r="A472" s="53"/>
     </row>
-    <row r="473" spans="1:1" ht="12.75">
+    <row r="473" spans="1:1" ht="13.2">
       <c r="A473" s="53"/>
     </row>
-    <row r="474" spans="1:1" ht="12.75">
+    <row r="474" spans="1:1" ht="13.2">
       <c r="A474" s="53"/>
     </row>
-    <row r="475" spans="1:1" ht="12.75">
+    <row r="475" spans="1:1" ht="13.2">
       <c r="A475" s="53"/>
     </row>
-    <row r="476" spans="1:1" ht="12.75">
+    <row r="476" spans="1:1" ht="13.2">
       <c r="A476" s="53"/>
     </row>
-    <row r="477" spans="1:1" ht="12.75">
+    <row r="477" spans="1:1" ht="13.2">
       <c r="A477" s="53"/>
     </row>
-    <row r="478" spans="1:1" ht="12.75">
+    <row r="478" spans="1:1" ht="13.2">
       <c r="A478" s="53"/>
     </row>
-    <row r="479" spans="1:1" ht="12.75">
+    <row r="479" spans="1:1" ht="13.2">
       <c r="A479" s="53"/>
     </row>
-    <row r="480" spans="1:1" ht="12.75">
+    <row r="480" spans="1:1" ht="13.2">
       <c r="A480" s="53"/>
     </row>
-    <row r="481" spans="1:1" ht="12.75">
+    <row r="481" spans="1:1" ht="13.2">
       <c r="A481" s="53"/>
     </row>
-    <row r="482" spans="1:1" ht="12.75">
+    <row r="482" spans="1:1" ht="13.2">
       <c r="A482" s="53"/>
     </row>
-    <row r="483" spans="1:1" ht="12.75">
+    <row r="483" spans="1:1" ht="13.2">
       <c r="A483" s="53"/>
     </row>
-    <row r="484" spans="1:1" ht="12.75">
+    <row r="484" spans="1:1" ht="13.2">
       <c r="A484" s="53"/>
     </row>
-    <row r="485" spans="1:1" ht="12.75">
+    <row r="485" spans="1:1" ht="13.2">
       <c r="A485" s="53"/>
     </row>
-    <row r="486" spans="1:1" ht="12.75">
+    <row r="486" spans="1:1" ht="13.2">
       <c r="A486" s="53"/>
     </row>
-    <row r="487" spans="1:1" ht="12.75">
+    <row r="487" spans="1:1" ht="13.2">
       <c r="A487" s="53"/>
     </row>
-    <row r="488" spans="1:1" ht="12.75">
+    <row r="488" spans="1:1" ht="13.2">
       <c r="A488" s="53"/>
     </row>
-    <row r="489" spans="1:1" ht="12.75">
+    <row r="489" spans="1:1" ht="13.2">
       <c r="A489" s="53"/>
     </row>
-    <row r="490" spans="1:1" ht="12.75">
+    <row r="490" spans="1:1" ht="13.2">
       <c r="A490" s="53"/>
     </row>
-    <row r="491" spans="1:1" ht="12.75">
+    <row r="491" spans="1:1" ht="13.2">
       <c r="A491" s="53"/>
     </row>
-    <row r="492" spans="1:1" ht="12.75">
+    <row r="492" spans="1:1" ht="13.2">
       <c r="A492" s="53"/>
     </row>
-    <row r="493" spans="1:1" ht="12.75">
+    <row r="493" spans="1:1" ht="13.2">
       <c r="A493" s="53"/>
     </row>
-    <row r="494" spans="1:1" ht="12.75">
+    <row r="494" spans="1:1" ht="13.2">
       <c r="A494" s="53"/>
     </row>
-    <row r="495" spans="1:1" ht="12.75">
+    <row r="495" spans="1:1" ht="13.2">
       <c r="A495" s="53"/>
     </row>
-    <row r="496" spans="1:1" ht="12.75">
+    <row r="496" spans="1:1" ht="13.2">
       <c r="A496" s="53"/>
     </row>
-    <row r="497" spans="1:1" ht="12.75">
+    <row r="497" spans="1:1" ht="13.2">
       <c r="A497" s="53"/>
     </row>
-    <row r="498" spans="1:1" ht="12.75">
+    <row r="498" spans="1:1" ht="13.2">
       <c r="A498" s="53"/>
     </row>
-    <row r="499" spans="1:1" ht="12.75">
+    <row r="499" spans="1:1" ht="13.2">
       <c r="A499" s="53"/>
     </row>
-    <row r="500" spans="1:1" ht="12.75">
+    <row r="500" spans="1:1" ht="13.2">
       <c r="A500" s="53"/>
     </row>
-    <row r="501" spans="1:1" ht="12.75">
+    <row r="501" spans="1:1" ht="13.2">
       <c r="A501" s="53"/>
     </row>
-    <row r="502" spans="1:1" ht="12.75">
+    <row r="502" spans="1:1" ht="13.2">
       <c r="A502" s="53"/>
     </row>
-    <row r="503" spans="1:1" ht="12.75">
+    <row r="503" spans="1:1" ht="13.2">
       <c r="A503" s="53"/>
     </row>
-    <row r="504" spans="1:1" ht="12.75">
+    <row r="504" spans="1:1" ht="13.2">
       <c r="A504" s="53"/>
     </row>
-    <row r="505" spans="1:1" ht="12.75">
+    <row r="505" spans="1:1" ht="13.2">
       <c r="A505" s="53"/>
     </row>
-    <row r="506" spans="1:1" ht="12.75">
+    <row r="506" spans="1:1" ht="13.2">
       <c r="A506" s="53"/>
     </row>
-    <row r="507" spans="1:1" ht="12.75">
+    <row r="507" spans="1:1" ht="13.2">
       <c r="A507" s="53"/>
     </row>
-    <row r="508" spans="1:1" ht="12.75">
+    <row r="508" spans="1:1" ht="13.2">
       <c r="A508" s="53"/>
     </row>
-    <row r="509" spans="1:1" ht="12.75">
+    <row r="509" spans="1:1" ht="13.2">
       <c r="A509" s="53"/>
     </row>
-    <row r="510" spans="1:1" ht="12.75">
+    <row r="510" spans="1:1" ht="13.2">
       <c r="A510" s="53"/>
     </row>
-    <row r="511" spans="1:1" ht="12.75">
+    <row r="511" spans="1:1" ht="13.2">
       <c r="A511" s="53"/>
     </row>
-    <row r="512" spans="1:1" ht="12.75">
+    <row r="512" spans="1:1" ht="13.2">
       <c r="A512" s="53"/>
     </row>
-    <row r="513" spans="1:1" ht="12.75">
+    <row r="513" spans="1:1" ht="13.2">
       <c r="A513" s="53"/>
     </row>
-    <row r="514" spans="1:1" ht="12.75">
+    <row r="514" spans="1:1" ht="13.2">
       <c r="A514" s="53"/>
     </row>
-    <row r="515" spans="1:1" ht="12.75">
+    <row r="515" spans="1:1" ht="13.2">
       <c r="A515" s="53"/>
     </row>
-    <row r="516" spans="1:1" ht="12.75">
+    <row r="516" spans="1:1" ht="13.2">
       <c r="A516" s="53"/>
     </row>
-    <row r="517" spans="1:1" ht="12.75">
+    <row r="517" spans="1:1" ht="13.2">
       <c r="A517" s="53"/>
     </row>
-    <row r="518" spans="1:1" ht="12.75">
+    <row r="518" spans="1:1" ht="13.2">
       <c r="A518" s="53"/>
     </row>
-    <row r="519" spans="1:1" ht="12.75">
+    <row r="519" spans="1:1" ht="13.2">
       <c r="A519" s="53"/>
     </row>
-    <row r="520" spans="1:1" ht="12.75">
+    <row r="520" spans="1:1" ht="13.2">
       <c r="A520" s="53"/>
     </row>
-    <row r="521" spans="1:1" ht="12.75">
+    <row r="521" spans="1:1" ht="13.2">
       <c r="A521" s="53"/>
     </row>
-    <row r="522" spans="1:1" ht="12.75">
+    <row r="522" spans="1:1" ht="13.2">
       <c r="A522" s="53"/>
     </row>
-    <row r="523" spans="1:1" ht="12.75">
+    <row r="523" spans="1:1" ht="13.2">
       <c r="A523" s="53"/>
     </row>
-    <row r="524" spans="1:1" ht="12.75">
+    <row r="524" spans="1:1" ht="13.2">
       <c r="A524" s="53"/>
     </row>
-    <row r="525" spans="1:1" ht="12.75">
+    <row r="525" spans="1:1" ht="13.2">
       <c r="A525" s="53"/>
     </row>
-    <row r="526" spans="1:1" ht="12.75">
+    <row r="526" spans="1:1" ht="13.2">
       <c r="A526" s="53"/>
     </row>
-    <row r="527" spans="1:1" ht="12.75">
+    <row r="527" spans="1:1" ht="13.2">
       <c r="A527" s="53"/>
     </row>
-    <row r="528" spans="1:1" ht="12.75">
+    <row r="528" spans="1:1" ht="13.2">
       <c r="A528" s="53"/>
     </row>
-    <row r="529" spans="1:1" ht="12.75">
+    <row r="529" spans="1:1" ht="13.2">
       <c r="A529" s="53"/>
     </row>
-    <row r="530" spans="1:1" ht="12.75">
+    <row r="530" spans="1:1" ht="13.2">
       <c r="A530" s="53"/>
     </row>
-    <row r="531" spans="1:1" ht="12.75">
+    <row r="531" spans="1:1" ht="13.2">
       <c r="A531" s="53"/>
     </row>
-    <row r="532" spans="1:1" ht="12.75">
+    <row r="532" spans="1:1" ht="13.2">
       <c r="A532" s="53"/>
     </row>
-    <row r="533" spans="1:1" ht="12.75">
+    <row r="533" spans="1:1" ht="13.2">
       <c r="A533" s="53"/>
     </row>
-    <row r="534" spans="1:1" ht="12.75">
+    <row r="534" spans="1:1" ht="13.2">
       <c r="A534" s="53"/>
     </row>
-    <row r="535" spans="1:1" ht="12.75">
+    <row r="535" spans="1:1" ht="13.2">
       <c r="A535" s="53"/>
     </row>
-    <row r="536" spans="1:1" ht="12.75">
+    <row r="536" spans="1:1" ht="13.2">
       <c r="A536" s="53"/>
     </row>
-    <row r="537" spans="1:1" ht="12.75">
+    <row r="537" spans="1:1" ht="13.2">
       <c r="A537" s="53"/>
     </row>
-    <row r="538" spans="1:1" ht="12.75">
+    <row r="538" spans="1:1" ht="13.2">
       <c r="A538" s="53"/>
     </row>
-    <row r="539" spans="1:1" ht="12.75">
+    <row r="539" spans="1:1" ht="13.2">
       <c r="A539" s="53"/>
     </row>
-    <row r="540" spans="1:1" ht="12.75">
+    <row r="540" spans="1:1" ht="13.2">
       <c r="A540" s="53"/>
     </row>
-    <row r="541" spans="1:1" ht="12.75">
+    <row r="541" spans="1:1" ht="13.2">
       <c r="A541" s="53"/>
     </row>
-    <row r="542" spans="1:1" ht="12.75">
+    <row r="542" spans="1:1" ht="13.2">
       <c r="A542" s="53"/>
     </row>
-    <row r="543" spans="1:1" ht="12.75">
+    <row r="543" spans="1:1" ht="13.2">
       <c r="A543" s="53"/>
     </row>
-    <row r="544" spans="1:1" ht="12.75">
+    <row r="544" spans="1:1" ht="13.2">
       <c r="A544" s="53"/>
     </row>
-    <row r="545" spans="1:1" ht="12.75">
+    <row r="545" spans="1:1" ht="13.2">
       <c r="A545" s="53"/>
     </row>
-    <row r="546" spans="1:1" ht="12.75">
+    <row r="546" spans="1:1" ht="13.2">
       <c r="A546" s="53"/>
     </row>
-    <row r="547" spans="1:1" ht="12.75">
+    <row r="547" spans="1:1" ht="13.2">
       <c r="A547" s="53"/>
     </row>
-    <row r="548" spans="1:1" ht="12.75">
+    <row r="548" spans="1:1" ht="13.2">
       <c r="A548" s="53"/>
     </row>
-    <row r="549" spans="1:1" ht="12.75">
+    <row r="549" spans="1:1" ht="13.2">
       <c r="A549" s="53"/>
     </row>
-    <row r="550" spans="1:1" ht="12.75">
+    <row r="550" spans="1:1" ht="13.2">
       <c r="A550" s="53"/>
     </row>
-    <row r="551" spans="1:1" ht="12.75">
+    <row r="551" spans="1:1" ht="13.2">
       <c r="A551" s="53"/>
     </row>
-    <row r="552" spans="1:1" ht="12.75">
+    <row r="552" spans="1:1" ht="13.2">
       <c r="A552" s="53"/>
     </row>
-    <row r="553" spans="1:1" ht="12.75">
+    <row r="553" spans="1:1" ht="13.2">
       <c r="A553" s="53"/>
     </row>
-    <row r="554" spans="1:1" ht="12.75">
+    <row r="554" spans="1:1" ht="13.2">
       <c r="A554" s="53"/>
     </row>
-    <row r="555" spans="1:1" ht="12.75">
+    <row r="555" spans="1:1" ht="13.2">
       <c r="A555" s="53"/>
     </row>
-    <row r="556" spans="1:1" ht="12.75">
+    <row r="556" spans="1:1" ht="13.2">
       <c r="A556" s="53"/>
     </row>
-    <row r="557" spans="1:1" ht="12.75">
+    <row r="557" spans="1:1" ht="13.2">
       <c r="A557" s="53"/>
     </row>
-    <row r="558" spans="1:1" ht="12.75">
+    <row r="558" spans="1:1" ht="13.2">
       <c r="A558" s="53"/>
     </row>
-    <row r="559" spans="1:1" ht="12.75">
+    <row r="559" spans="1:1" ht="13.2">
       <c r="A559" s="53"/>
     </row>
-    <row r="560" spans="1:1" ht="12.75">
+    <row r="560" spans="1:1" ht="13.2">
       <c r="A560" s="53"/>
     </row>
-    <row r="561" spans="1:1" ht="12.75">
+    <row r="561" spans="1:1" ht="13.2">
       <c r="A561" s="53"/>
     </row>
-    <row r="562" spans="1:1" ht="12.75">
+    <row r="562" spans="1:1" ht="13.2">
       <c r="A562" s="53"/>
     </row>
-    <row r="563" spans="1:1" ht="12.75">
+    <row r="563" spans="1:1" ht="13.2">
       <c r="A563" s="53"/>
     </row>
-    <row r="564" spans="1:1" ht="12.75">
+    <row r="564" spans="1:1" ht="13.2">
       <c r="A564" s="53"/>
     </row>
-    <row r="565" spans="1:1" ht="12.75">
+    <row r="565" spans="1:1" ht="13.2">
       <c r="A565" s="53"/>
     </row>
-    <row r="566" spans="1:1" ht="12.75">
+    <row r="566" spans="1:1" ht="13.2">
       <c r="A566" s="53"/>
     </row>
-    <row r="567" spans="1:1" ht="12.75">
+    <row r="567" spans="1:1" ht="13.2">
       <c r="A567" s="53"/>
     </row>
-    <row r="568" spans="1:1" ht="12.75">
+    <row r="568" spans="1:1" ht="13.2">
       <c r="A568" s="53"/>
     </row>
-    <row r="569" spans="1:1" ht="12.75">
+    <row r="569" spans="1:1" ht="13.2">
       <c r="A569" s="53"/>
     </row>
-    <row r="570" spans="1:1" ht="12.75">
+    <row r="570" spans="1:1" ht="13.2">
       <c r="A570" s="53"/>
     </row>
-    <row r="571" spans="1:1" ht="12.75">
+    <row r="571" spans="1:1" ht="13.2">
       <c r="A571" s="53"/>
     </row>
-    <row r="572" spans="1:1" ht="12.75">
+    <row r="572" spans="1:1" ht="13.2">
       <c r="A572" s="53"/>
     </row>
-    <row r="573" spans="1:1" ht="12.75">
+    <row r="573" spans="1:1" ht="13.2">
       <c r="A573" s="53"/>
     </row>
-    <row r="574" spans="1:1" ht="12.75">
+    <row r="574" spans="1:1" ht="13.2">
       <c r="A574" s="53"/>
     </row>
-    <row r="575" spans="1:1" ht="12.75">
+    <row r="575" spans="1:1" ht="13.2">
       <c r="A575" s="53"/>
     </row>
-    <row r="576" spans="1:1" ht="12.75">
+    <row r="576" spans="1:1" ht="13.2">
       <c r="A576" s="53"/>
     </row>
-    <row r="577" spans="1:1" ht="12.75">
+    <row r="577" spans="1:1" ht="13.2">
       <c r="A577" s="53"/>
     </row>
-    <row r="578" spans="1:1" ht="12.75">
+    <row r="578" spans="1:1" ht="13.2">
       <c r="A578" s="53"/>
     </row>
-    <row r="579" spans="1:1" ht="12.75">
+    <row r="579" spans="1:1" ht="13.2">
       <c r="A579" s="53"/>
     </row>
-    <row r="580" spans="1:1" ht="12.75">
+    <row r="580" spans="1:1" ht="13.2">
       <c r="A580" s="53"/>
     </row>
-    <row r="581" spans="1:1" ht="12.75">
+    <row r="581" spans="1:1" ht="13.2">
       <c r="A581" s="53"/>
     </row>
-    <row r="582" spans="1:1" ht="12.75">
+    <row r="582" spans="1:1" ht="13.2">
       <c r="A582" s="53"/>
     </row>
-    <row r="583" spans="1:1" ht="12.75">
+    <row r="583" spans="1:1" ht="13.2">
       <c r="A583" s="53"/>
     </row>
-    <row r="584" spans="1:1" ht="12.75">
+    <row r="584" spans="1:1" ht="13.2">
       <c r="A584" s="53"/>
     </row>
-    <row r="585" spans="1:1" ht="12.75">
+    <row r="585" spans="1:1" ht="13.2">
       <c r="A585" s="53"/>
     </row>
-    <row r="586" spans="1:1" ht="12.75">
+    <row r="586" spans="1:1" ht="13.2">
       <c r="A586" s="53"/>
     </row>
-    <row r="587" spans="1:1" ht="12.75">
+    <row r="587" spans="1:1" ht="13.2">
       <c r="A587" s="53"/>
     </row>
-    <row r="588" spans="1:1" ht="12.75">
+    <row r="588" spans="1:1" ht="13.2">
       <c r="A588" s="53"/>
     </row>
-    <row r="589" spans="1:1" ht="12.75">
+    <row r="589" spans="1:1" ht="13.2">
       <c r="A589" s="53"/>
     </row>
-    <row r="590" spans="1:1" ht="12.75">
+    <row r="590" spans="1:1" ht="13.2">
       <c r="A590" s="53"/>
     </row>
-    <row r="591" spans="1:1" ht="12.75">
+    <row r="591" spans="1:1" ht="13.2">
       <c r="A591" s="53"/>
     </row>
-    <row r="592" spans="1:1" ht="12.75">
+    <row r="592" spans="1:1" ht="13.2">
       <c r="A592" s="53"/>
     </row>
-    <row r="593" spans="1:1" ht="12.75">
+    <row r="593" spans="1:1" ht="13.2">
       <c r="A593" s="53"/>
     </row>
-    <row r="594" spans="1:1" ht="12.75">
+    <row r="594" spans="1:1" ht="13.2">
       <c r="A594" s="53"/>
     </row>
-    <row r="595" spans="1:1" ht="12.75">
+    <row r="595" spans="1:1" ht="13.2">
       <c r="A595" s="53"/>
     </row>
-    <row r="596" spans="1:1" ht="12.75">
+    <row r="596" spans="1:1" ht="13.2">
       <c r="A596" s="53"/>
     </row>
-    <row r="597" spans="1:1" ht="12.75">
+    <row r="597" spans="1:1" ht="13.2">
       <c r="A597" s="53"/>
     </row>
-    <row r="598" spans="1:1" ht="12.75">
+    <row r="598" spans="1:1" ht="13.2">
       <c r="A598" s="53"/>
     </row>
-    <row r="599" spans="1:1" ht="12.75">
+    <row r="599" spans="1:1" ht="13.2">
       <c r="A599" s="53"/>
     </row>
-    <row r="600" spans="1:1" ht="12.75">
+    <row r="600" spans="1:1" ht="13.2">
       <c r="A600" s="53"/>
     </row>
-    <row r="601" spans="1:1" ht="12.75">
+    <row r="601" spans="1:1" ht="13.2">
       <c r="A601" s="53"/>
     </row>
-    <row r="602" spans="1:1" ht="12.75">
+    <row r="602" spans="1:1" ht="13.2">
       <c r="A602" s="53"/>
     </row>
-    <row r="603" spans="1:1" ht="12.75">
+    <row r="603" spans="1:1" ht="13.2">
       <c r="A603" s="53"/>
     </row>
-    <row r="604" spans="1:1" ht="12.75">
+    <row r="604" spans="1:1" ht="13.2">
       <c r="A604" s="53"/>
     </row>
-    <row r="605" spans="1:1" ht="12.75">
+    <row r="605" spans="1:1" ht="13.2">
       <c r="A605" s="53"/>
     </row>
-    <row r="606" spans="1:1" ht="12.75">
+    <row r="606" spans="1:1" ht="13.2">
       <c r="A606" s="53"/>
     </row>
-    <row r="607" spans="1:1" ht="12.75">
+    <row r="607" spans="1:1" ht="13.2">
       <c r="A607" s="53"/>
     </row>
-    <row r="608" spans="1:1" ht="12.75">
+    <row r="608" spans="1:1" ht="13.2">
       <c r="A608" s="53"/>
     </row>
-    <row r="609" spans="1:1" ht="12.75">
+    <row r="609" spans="1:1" ht="13.2">
       <c r="A609" s="53"/>
     </row>
-    <row r="610" spans="1:1" ht="12.75">
+    <row r="610" spans="1:1" ht="13.2">
       <c r="A610" s="53"/>
     </row>
-    <row r="611" spans="1:1" ht="12.75">
+    <row r="611" spans="1:1" ht="13.2">
       <c r="A611" s="53"/>
     </row>
-    <row r="612" spans="1:1" ht="12.75">
+    <row r="612" spans="1:1" ht="13.2">
       <c r="A612" s="53"/>
     </row>
-    <row r="613" spans="1:1" ht="12.75">
+    <row r="613" spans="1:1" ht="13.2">
       <c r="A613" s="53"/>
     </row>
-    <row r="614" spans="1:1" ht="12.75">
+    <row r="614" spans="1:1" ht="13.2">
       <c r="A614" s="53"/>
     </row>
-    <row r="615" spans="1:1" ht="12.75">
+    <row r="615" spans="1:1" ht="13.2">
       <c r="A615" s="53"/>
     </row>
-    <row r="616" spans="1:1" ht="12.75">
+    <row r="616" spans="1:1" ht="13.2">
       <c r="A616" s="53"/>
     </row>
-    <row r="617" spans="1:1" ht="12.75">
+    <row r="617" spans="1:1" ht="13.2">
       <c r="A617" s="53"/>
     </row>
-    <row r="618" spans="1:1" ht="12.75">
+    <row r="618" spans="1:1" ht="13.2">
       <c r="A618" s="53"/>
     </row>
-    <row r="619" spans="1:1" ht="12.75">
+    <row r="619" spans="1:1" ht="13.2">
       <c r="A619" s="53"/>
     </row>
-    <row r="620" spans="1:1" ht="12.75">
+    <row r="620" spans="1:1" ht="13.2">
       <c r="A620" s="53"/>
     </row>
-    <row r="621" spans="1:1" ht="12.75">
+    <row r="621" spans="1:1" ht="13.2">
       <c r="A621" s="53"/>
     </row>
-    <row r="622" spans="1:1" ht="12.75">
+    <row r="622" spans="1:1" ht="13.2">
       <c r="A622" s="53"/>
     </row>
-    <row r="623" spans="1:1" ht="12.75">
+    <row r="623" spans="1:1" ht="13.2">
       <c r="A623" s="53"/>
     </row>
-    <row r="624" spans="1:1" ht="12.75">
+    <row r="624" spans="1:1" ht="13.2">
       <c r="A624" s="53"/>
     </row>
-    <row r="625" spans="1:1" ht="12.75">
+    <row r="625" spans="1:1" ht="13.2">
       <c r="A625" s="53"/>
     </row>
-    <row r="626" spans="1:1" ht="12.75">
+    <row r="626" spans="1:1" ht="13.2">
       <c r="A626" s="53"/>
     </row>
-    <row r="627" spans="1:1" ht="12.75">
+    <row r="627" spans="1:1" ht="13.2">
       <c r="A627" s="53"/>
     </row>
-    <row r="628" spans="1:1" ht="12.75">
+    <row r="628" spans="1:1" ht="13.2">
       <c r="A628" s="53"/>
     </row>
-    <row r="629" spans="1:1" ht="12.75">
+    <row r="629" spans="1:1" ht="13.2">
       <c r="A629" s="53"/>
     </row>
-    <row r="630" spans="1:1" ht="12.75">
+    <row r="630" spans="1:1" ht="13.2">
       <c r="A630" s="53"/>
     </row>
-    <row r="631" spans="1:1" ht="12.75">
+    <row r="631" spans="1:1" ht="13.2">
       <c r="A631" s="53"/>
     </row>
-    <row r="632" spans="1:1" ht="12.75">
+    <row r="632" spans="1:1" ht="13.2">
       <c r="A632" s="53"/>
     </row>
-    <row r="633" spans="1:1" ht="12.75">
+    <row r="633" spans="1:1" ht="13.2">
       <c r="A633" s="53"/>
     </row>
-    <row r="634" spans="1:1" ht="12.75">
+    <row r="634" spans="1:1" ht="13.2">
       <c r="A634" s="53"/>
     </row>
-    <row r="635" spans="1:1" ht="12.75">
+    <row r="635" spans="1:1" ht="13.2">
       <c r="A635" s="53"/>
     </row>
-    <row r="636" spans="1:1" ht="12.75">
+    <row r="636" spans="1:1" ht="13.2">
       <c r="A636" s="53"/>
     </row>
-    <row r="637" spans="1:1" ht="12.75">
+    <row r="637" spans="1:1" ht="13.2">
       <c r="A637" s="53"/>
     </row>
-    <row r="638" spans="1:1" ht="12.75">
+    <row r="638" spans="1:1" ht="13.2">
       <c r="A638" s="53"/>
     </row>
-    <row r="639" spans="1:1" ht="12.75">
+    <row r="639" spans="1:1" ht="13.2">
       <c r="A639" s="53"/>
     </row>
-    <row r="640" spans="1:1" ht="12.75">
+    <row r="640" spans="1:1" ht="13.2">
       <c r="A640" s="53"/>
     </row>
-    <row r="641" spans="1:1" ht="12.75">
+    <row r="641" spans="1:1" ht="13.2">
       <c r="A641" s="53"/>
     </row>
-    <row r="642" spans="1:1" ht="12.75">
+    <row r="642" spans="1:1" ht="13.2">
       <c r="A642" s="53"/>
     </row>
-    <row r="643" spans="1:1" ht="12.75">
+    <row r="643" spans="1:1" ht="13.2">
       <c r="A643" s="53"/>
     </row>
-    <row r="644" spans="1:1" ht="12.75">
+    <row r="644" spans="1:1" ht="13.2">
       <c r="A644" s="53"/>
     </row>
-    <row r="645" spans="1:1" ht="12.75">
+    <row r="645" spans="1:1" ht="13.2">
       <c r="A645" s="53"/>
     </row>
-    <row r="646" spans="1:1" ht="12.75">
+    <row r="646" spans="1:1" ht="13.2">
       <c r="A646" s="53"/>
     </row>
-    <row r="647" spans="1:1" ht="12.75">
+    <row r="647" spans="1:1" ht="13.2">
       <c r="A647" s="53"/>
     </row>
-    <row r="648" spans="1:1" ht="12.75">
+    <row r="648" spans="1:1" ht="13.2">
       <c r="A648" s="53"/>
     </row>
-    <row r="649" spans="1:1" ht="12.75">
+    <row r="649" spans="1:1" ht="13.2">
       <c r="A649" s="53"/>
     </row>
-    <row r="650" spans="1:1" ht="12.75">
+    <row r="650" spans="1:1" ht="13.2">
       <c r="A650" s="53"/>
     </row>
-    <row r="651" spans="1:1" ht="12.75">
+    <row r="651" spans="1:1" ht="13.2">
       <c r="A651" s="53"/>
     </row>
-    <row r="652" spans="1:1" ht="12.75">
+    <row r="652" spans="1:1" ht="13.2">
       <c r="A652" s="53"/>
     </row>
-    <row r="653" spans="1:1" ht="12.75">
+    <row r="653" spans="1:1" ht="13.2">
       <c r="A653" s="53"/>
     </row>
-    <row r="654" spans="1:1" ht="12.75">
+    <row r="654" spans="1:1" ht="13.2">
       <c r="A654" s="53"/>
     </row>
-    <row r="655" spans="1:1" ht="12.75">
+    <row r="655" spans="1:1" ht="13.2">
       <c r="A655" s="53"/>
     </row>
-    <row r="656" spans="1:1" ht="12.75">
+    <row r="656" spans="1:1" ht="13.2">
       <c r="A656" s="53"/>
     </row>
-    <row r="657" spans="1:1" ht="12.75">
+    <row r="657" spans="1:1" ht="13.2">
       <c r="A657" s="53"/>
     </row>
-    <row r="658" spans="1:1" ht="12.75">
+    <row r="658" spans="1:1" ht="13.2">
       <c r="A658" s="53"/>
     </row>
-    <row r="659" spans="1:1" ht="12.75">
+    <row r="659" spans="1:1" ht="13.2">
       <c r="A659" s="53"/>
     </row>
-    <row r="660" spans="1:1" ht="12.75">
+    <row r="660" spans="1:1" ht="13.2">
       <c r="A660" s="53"/>
     </row>
-    <row r="661" spans="1:1" ht="12.75">
+    <row r="661" spans="1:1" ht="13.2">
       <c r="A661" s="53"/>
     </row>
-    <row r="662" spans="1:1" ht="12.75">
+    <row r="662" spans="1:1" ht="13.2">
       <c r="A662" s="53"/>
     </row>
-    <row r="663" spans="1:1" ht="12.75">
+    <row r="663" spans="1:1" ht="13.2">
       <c r="A663" s="53"/>
     </row>
-    <row r="664" spans="1:1" ht="12.75">
+    <row r="664" spans="1:1" ht="13.2">
       <c r="A664" s="53"/>
     </row>
-    <row r="665" spans="1:1" ht="12.75">
+    <row r="665" spans="1:1" ht="13.2">
       <c r="A665" s="53"/>
     </row>
-    <row r="666" spans="1:1" ht="12.75">
+    <row r="666" spans="1:1" ht="13.2">
       <c r="A666" s="53"/>
     </row>
-    <row r="667" spans="1:1" ht="12.75">
+    <row r="667" spans="1:1" ht="13.2">
       <c r="A667" s="53"/>
     </row>
-    <row r="668" spans="1:1" ht="12.75">
+    <row r="668" spans="1:1" ht="13.2">
       <c r="A668" s="53"/>
     </row>
-    <row r="669" spans="1:1" ht="12.75">
+    <row r="669" spans="1:1" ht="13.2">
       <c r="A669" s="53"/>
     </row>
-    <row r="670" spans="1:1" ht="12.75">
+    <row r="670" spans="1:1" ht="13.2">
       <c r="A670" s="53"/>
     </row>
-    <row r="671" spans="1:1" ht="12.75">
+    <row r="671" spans="1:1" ht="13.2">
       <c r="A671" s="53"/>
     </row>
-    <row r="672" spans="1:1" ht="12.75">
+    <row r="672" spans="1:1" ht="13.2">
       <c r="A672" s="53"/>
     </row>
-    <row r="673" spans="1:1" ht="12.75">
+    <row r="673" spans="1:1" ht="13.2">
       <c r="A673" s="53"/>
     </row>
-    <row r="674" spans="1:1" ht="12.75">
+    <row r="674" spans="1:1" ht="13.2">
       <c r="A674" s="53"/>
     </row>
-    <row r="675" spans="1:1" ht="12.75">
+    <row r="675" spans="1:1" ht="13.2">
       <c r="A675" s="53"/>
     </row>
-    <row r="676" spans="1:1" ht="12.75">
+    <row r="676" spans="1:1" ht="13.2">
       <c r="A676" s="53"/>
     </row>
-    <row r="677" spans="1:1" ht="12.75">
+    <row r="677" spans="1:1" ht="13.2">
       <c r="A677" s="53"/>
     </row>
-    <row r="678" spans="1:1" ht="12.75">
+    <row r="678" spans="1:1" ht="13.2">
       <c r="A678" s="53"/>
     </row>
-    <row r="679" spans="1:1" ht="12.75">
+    <row r="679" spans="1:1" ht="13.2">
       <c r="A679" s="53"/>
     </row>
-    <row r="680" spans="1:1" ht="12.75">
+    <row r="680" spans="1:1" ht="13.2">
       <c r="A680" s="53"/>
     </row>
-    <row r="681" spans="1:1" ht="12.75">
+    <row r="681" spans="1:1" ht="13.2">
       <c r="A681" s="53"/>
     </row>
-    <row r="682" spans="1:1" ht="12.75">
+    <row r="682" spans="1:1" ht="13.2">
       <c r="A682" s="53"/>
     </row>
-    <row r="683" spans="1:1" ht="12.75">
+    <row r="683" spans="1:1" ht="13.2">
       <c r="A683" s="53"/>
     </row>
-    <row r="684" spans="1:1" ht="12.75">
+    <row r="684" spans="1:1" ht="13.2">
       <c r="A684" s="53"/>
     </row>
-    <row r="685" spans="1:1" ht="12.75">
+    <row r="685" spans="1:1" ht="13.2">
       <c r="A685" s="53"/>
     </row>
-    <row r="686" spans="1:1" ht="12.75">
+    <row r="686" spans="1:1" ht="13.2">
       <c r="A686" s="53"/>
     </row>
-    <row r="687" spans="1:1" ht="12.75">
+    <row r="687" spans="1:1" ht="13.2">
       <c r="A687" s="53"/>
     </row>
-    <row r="688" spans="1:1" ht="12.75">
+    <row r="688" spans="1:1" ht="13.2">
       <c r="A688" s="53"/>
     </row>
-    <row r="689" spans="1:1" ht="12.75">
+    <row r="689" spans="1:1" ht="13.2">
       <c r="A689" s="53"/>
     </row>
-    <row r="690" spans="1:1" ht="12.75">
+    <row r="690" spans="1:1" ht="13.2">
       <c r="A690" s="53"/>
     </row>
-    <row r="691" spans="1:1" ht="12.75">
+    <row r="691" spans="1:1" ht="13.2">
       <c r="A691" s="53"/>
     </row>
-    <row r="692" spans="1:1" ht="12.75">
+    <row r="692" spans="1:1" ht="13.2">
       <c r="A692" s="53"/>
     </row>
-    <row r="693" spans="1:1" ht="12.75">
+    <row r="693" spans="1:1" ht="13.2">
       <c r="A693" s="53"/>
     </row>
-    <row r="694" spans="1:1" ht="12.75">
+    <row r="694" spans="1:1" ht="13.2">
       <c r="A694" s="53"/>
     </row>
-    <row r="695" spans="1:1" ht="12.75">
+    <row r="695" spans="1:1" ht="13.2">
       <c r="A695" s="53"/>
     </row>
-    <row r="696" spans="1:1" ht="12.75">
+    <row r="696" spans="1:1" ht="13.2">
       <c r="A696" s="53"/>
     </row>
-    <row r="697" spans="1:1" ht="12.75">
+    <row r="697" spans="1:1" ht="13.2">
       <c r="A697" s="53"/>
     </row>
-    <row r="698" spans="1:1" ht="12.75">
+    <row r="698" spans="1:1" ht="13.2">
       <c r="A698" s="53"/>
     </row>
-    <row r="699" spans="1:1" ht="12.75">
+    <row r="699" spans="1:1" ht="13.2">
       <c r="A699" s="53"/>
     </row>
-    <row r="700" spans="1:1" ht="12.75">
+    <row r="700" spans="1:1" ht="13.2">
       <c r="A700" s="53"/>
     </row>
-    <row r="701" spans="1:1" ht="12.75">
+    <row r="701" spans="1:1" ht="13.2">
       <c r="A701" s="53"/>
     </row>
-    <row r="702" spans="1:1" ht="12.75">
+    <row r="702" spans="1:1" ht="13.2">
       <c r="A702" s="53"/>
     </row>
-    <row r="703" spans="1:1" ht="12.75">
+    <row r="703" spans="1:1" ht="13.2">
       <c r="A703" s="53"/>
     </row>
-    <row r="704" spans="1:1" ht="12.75">
+    <row r="704" spans="1:1" ht="13.2">
       <c r="A704" s="53"/>
     </row>
-    <row r="705" spans="1:1" ht="12.75">
+    <row r="705" spans="1:1" ht="13.2">
       <c r="A705" s="53"/>
     </row>
-    <row r="706" spans="1:1" ht="12.75">
+    <row r="706" spans="1:1" ht="13.2">
       <c r="A706" s="53"/>
     </row>
-    <row r="707" spans="1:1" ht="12.75">
+    <row r="707" spans="1:1" ht="13.2">
       <c r="A707" s="53"/>
     </row>
-    <row r="708" spans="1:1" ht="12.75">
+    <row r="708" spans="1:1" ht="13.2">
       <c r="A708" s="53"/>
     </row>
-    <row r="709" spans="1:1" ht="12.75">
+    <row r="709" spans="1:1" ht="13.2">
       <c r="A709" s="53"/>
     </row>
-    <row r="710" spans="1:1" ht="12.75">
+    <row r="710" spans="1:1" ht="13.2">
       <c r="A710" s="53"/>
     </row>
-    <row r="711" spans="1:1" ht="12.75">
+    <row r="711" spans="1:1" ht="13.2">
       <c r="A711" s="53"/>
     </row>
-    <row r="712" spans="1:1" ht="12.75">
+    <row r="712" spans="1:1" ht="13.2">
       <c r="A712" s="53"/>
     </row>
-    <row r="713" spans="1:1" ht="12.75">
+    <row r="713" spans="1:1" ht="13.2">
       <c r="A713" s="53"/>
     </row>
-    <row r="714" spans="1:1" ht="12.75">
+    <row r="714" spans="1:1" ht="13.2">
       <c r="A714" s="53"/>
     </row>
-    <row r="715" spans="1:1" ht="12.75">
+    <row r="715" spans="1:1" ht="13.2">
       <c r="A715" s="53"/>
     </row>
-    <row r="716" spans="1:1" ht="12.75">
+    <row r="716" spans="1:1" ht="13.2">
       <c r="A716" s="53"/>
     </row>
-    <row r="717" spans="1:1" ht="12.75">
+    <row r="717" spans="1:1" ht="13.2">
       <c r="A717" s="53"/>
     </row>
-    <row r="718" spans="1:1" ht="12.75">
+    <row r="718" spans="1:1" ht="13.2">
       <c r="A718" s="53"/>
     </row>
-    <row r="719" spans="1:1" ht="12.75">
+    <row r="719" spans="1:1" ht="13.2">
       <c r="A719" s="53"/>
     </row>
-    <row r="720" spans="1:1" ht="12.75">
+    <row r="720" spans="1:1" ht="13.2">
       <c r="A720" s="53"/>
     </row>
-    <row r="721" spans="1:1" ht="12.75">
+    <row r="721" spans="1:1" ht="13.2">
       <c r="A721" s="53"/>
     </row>
-    <row r="722" spans="1:1" ht="12.75">
+    <row r="722" spans="1:1" ht="13.2">
       <c r="A722" s="53"/>
     </row>
-    <row r="723" spans="1:1" ht="12.75">
+    <row r="723" spans="1:1" ht="13.2">
       <c r="A723" s="53"/>
     </row>
-    <row r="724" spans="1:1" ht="12.75">
+    <row r="724" spans="1:1" ht="13.2">
       <c r="A724" s="53"/>
     </row>
-    <row r="725" spans="1:1" ht="12.75">
+    <row r="725" spans="1:1" ht="13.2">
       <c r="A725" s="53"/>
     </row>
-    <row r="726" spans="1:1" ht="12.75">
+    <row r="726" spans="1:1" ht="13.2">
       <c r="A726" s="53"/>
     </row>
-    <row r="727" spans="1:1" ht="12.75">
+    <row r="727" spans="1:1" ht="13.2">
       <c r="A727" s="53"/>
     </row>
-    <row r="728" spans="1:1" ht="12.75">
+    <row r="728" spans="1:1" ht="13.2">
       <c r="A728" s="53"/>
     </row>
-    <row r="729" spans="1:1" ht="12.75">
+    <row r="729" spans="1:1" ht="13.2">
       <c r="A729" s="53"/>
     </row>
-    <row r="730" spans="1:1" ht="12.75">
+    <row r="730" spans="1:1" ht="13.2">
       <c r="A730" s="53"/>
     </row>
-    <row r="731" spans="1:1" ht="12.75">
+    <row r="731" spans="1:1" ht="13.2">
       <c r="A731" s="53"/>
     </row>
-    <row r="732" spans="1:1" ht="12.75">
+    <row r="732" spans="1:1" ht="13.2">
       <c r="A732" s="53"/>
     </row>
-    <row r="733" spans="1:1" ht="12.75">
+    <row r="733" spans="1:1" ht="13.2">
       <c r="A733" s="53"/>
     </row>
-    <row r="734" spans="1:1" ht="12.75">
+    <row r="734" spans="1:1" ht="13.2">
       <c r="A734" s="53"/>
     </row>
-    <row r="735" spans="1:1" ht="12.75">
+    <row r="735" spans="1:1" ht="13.2">
       <c r="A735" s="53"/>
     </row>
-    <row r="736" spans="1:1" ht="12.75">
+    <row r="736" spans="1:1" ht="13.2">
       <c r="A736" s="53"/>
     </row>
-    <row r="737" spans="1:1" ht="12.75">
+    <row r="737" spans="1:1" ht="13.2">
       <c r="A737" s="53"/>
     </row>
-    <row r="738" spans="1:1" ht="12.75">
+    <row r="738" spans="1:1" ht="13.2">
       <c r="A738" s="53"/>
     </row>
-    <row r="739" spans="1:1" ht="12.75">
+    <row r="739" spans="1:1" ht="13.2">
       <c r="A739" s="53"/>
     </row>
-    <row r="740" spans="1:1" ht="12.75">
+    <row r="740" spans="1:1" ht="13.2">
       <c r="A740" s="53"/>
     </row>
-    <row r="741" spans="1:1" ht="12.75">
+    <row r="741" spans="1:1" ht="13.2">
       <c r="A741" s="53"/>
     </row>
-    <row r="742" spans="1:1" ht="12.75">
+    <row r="742" spans="1:1" ht="13.2">
       <c r="A742" s="53"/>
     </row>
-    <row r="743" spans="1:1" ht="12.75">
+    <row r="743" spans="1:1" ht="13.2">
       <c r="A743" s="53"/>
     </row>
-    <row r="744" spans="1:1" ht="12.75">
+    <row r="744" spans="1:1" ht="13.2">
       <c r="A744" s="53"/>
     </row>
-    <row r="745" spans="1:1" ht="12.75">
+    <row r="745" spans="1:1" ht="13.2">
       <c r="A745" s="53"/>
     </row>
-    <row r="746" spans="1:1" ht="12.75">
+    <row r="746" spans="1:1" ht="13.2">
       <c r="A746" s="53"/>
     </row>
-    <row r="747" spans="1:1" ht="12.75">
+    <row r="747" spans="1:1" ht="13.2">
       <c r="A747" s="53"/>
     </row>
-    <row r="748" spans="1:1" ht="12.75">
+    <row r="748" spans="1:1" ht="13.2">
       <c r="A748" s="53"/>
     </row>
-    <row r="749" spans="1:1" ht="12.75">
+    <row r="749" spans="1:1" ht="13.2">
       <c r="A749" s="53"/>
     </row>
-    <row r="750" spans="1:1" ht="12.75">
+    <row r="750" spans="1:1" ht="13.2">
       <c r="A750" s="53"/>
     </row>
-    <row r="751" spans="1:1" ht="12.75">
+    <row r="751" spans="1:1" ht="13.2">
       <c r="A751" s="53"/>
     </row>
-    <row r="752" spans="1:1" ht="12.75">
+    <row r="752" spans="1:1" ht="13.2">
       <c r="A752" s="53"/>
     </row>
-    <row r="753" spans="1:1" ht="12.75">
+    <row r="753" spans="1:1" ht="13.2">
       <c r="A753" s="53"/>
     </row>
-    <row r="754" spans="1:1" ht="12.75">
+    <row r="754" spans="1:1" ht="13.2">
       <c r="A754" s="53"/>
     </row>
-    <row r="755" spans="1:1" ht="12.75">
+    <row r="755" spans="1:1" ht="13.2">
       <c r="A755" s="53"/>
     </row>
-    <row r="756" spans="1:1" ht="12.75">
+    <row r="756" spans="1:1" ht="13.2">
       <c r="A756" s="53"/>
     </row>
-    <row r="757" spans="1:1" ht="12.75">
+    <row r="757" spans="1:1" ht="13.2">
       <c r="A757" s="53"/>
     </row>
-    <row r="758" spans="1:1" ht="12.75">
+    <row r="758" spans="1:1" ht="13.2">
       <c r="A758" s="53"/>
     </row>
-    <row r="759" spans="1:1" ht="12.75">
+    <row r="759" spans="1:1" ht="13.2">
       <c r="A759" s="53"/>
     </row>
-    <row r="760" spans="1:1" ht="12.75">
+    <row r="760" spans="1:1" ht="13.2">
       <c r="A760" s="53"/>
     </row>
-    <row r="761" spans="1:1" ht="12.75">
+    <row r="761" spans="1:1" ht="13.2">
       <c r="A761" s="53"/>
     </row>
-    <row r="762" spans="1:1" ht="12.75">
+    <row r="762" spans="1:1" ht="13.2">
       <c r="A762" s="53"/>
     </row>
-    <row r="763" spans="1:1" ht="12.75">
+    <row r="763" spans="1:1" ht="13.2">
       <c r="A763" s="53"/>
     </row>
-    <row r="764" spans="1:1" ht="12.75">
+    <row r="764" spans="1:1" ht="13.2">
       <c r="A764" s="53"/>
     </row>
-    <row r="765" spans="1:1" ht="12.75">
+    <row r="765" spans="1:1" ht="13.2">
       <c r="A765" s="53"/>
     </row>
-    <row r="766" spans="1:1" ht="12.75">
+    <row r="766" spans="1:1" ht="13.2">
       <c r="A766" s="53"/>
     </row>
-    <row r="767" spans="1:1" ht="12.75">
+    <row r="767" spans="1:1" ht="13.2">
       <c r="A767" s="53"/>
     </row>
-    <row r="768" spans="1:1" ht="12.75">
+    <row r="768" spans="1:1" ht="13.2">
       <c r="A768" s="53"/>
     </row>
-    <row r="769" spans="1:1" ht="12.75">
+    <row r="769" spans="1:1" ht="13.2">
       <c r="A769" s="53"/>
     </row>
-    <row r="770" spans="1:1" ht="12.75">
+    <row r="770" spans="1:1" ht="13.2">
       <c r="A770" s="53"/>
     </row>
-    <row r="771" spans="1:1" ht="12.75">
+    <row r="771" spans="1:1" ht="13.2">
       <c r="A771" s="53"/>
     </row>
-    <row r="772" spans="1:1" ht="12.75">
+    <row r="772" spans="1:1" ht="13.2">
       <c r="A772" s="53"/>
     </row>
-    <row r="773" spans="1:1" ht="12.75">
+    <row r="773" spans="1:1" ht="13.2">
       <c r="A773" s="53"/>
     </row>
-    <row r="774" spans="1:1" ht="12.75">
+    <row r="774" spans="1:1" ht="13.2">
       <c r="A774" s="53"/>
     </row>
-    <row r="775" spans="1:1" ht="12.75">
+    <row r="775" spans="1:1" ht="13.2">
       <c r="A775" s="53"/>
     </row>
-    <row r="776" spans="1:1" ht="12.75">
+    <row r="776" spans="1:1" ht="13.2">
       <c r="A776" s="53"/>
     </row>
-    <row r="777" spans="1:1" ht="12.75">
+    <row r="777" spans="1:1" ht="13.2">
       <c r="A777" s="53"/>
     </row>
-    <row r="778" spans="1:1" ht="12.75">
+    <row r="778" spans="1:1" ht="13.2">
       <c r="A778" s="53"/>
     </row>
-    <row r="779" spans="1:1" ht="12.75">
+    <row r="779" spans="1:1" ht="13.2">
       <c r="A779" s="53"/>
     </row>
-    <row r="780" spans="1:1" ht="12.75">
+    <row r="780" spans="1:1" ht="13.2">
       <c r="A780" s="53"/>
     </row>
-    <row r="781" spans="1:1" ht="12.75">
+    <row r="781" spans="1:1" ht="13.2">
       <c r="A781" s="53"/>
     </row>
-    <row r="782" spans="1:1" ht="12.75">
+    <row r="782" spans="1:1" ht="13.2">
       <c r="A782" s="53"/>
     </row>
-    <row r="783" spans="1:1" ht="12.75">
+    <row r="783" spans="1:1" ht="13.2">
       <c r="A783" s="53"/>
     </row>
-    <row r="784" spans="1:1" ht="12.75">
+    <row r="784" spans="1:1" ht="13.2">
       <c r="A784" s="53"/>
     </row>
-    <row r="785" spans="1:1" ht="12.75">
+    <row r="785" spans="1:1" ht="13.2">
       <c r="A785" s="53"/>
     </row>
-    <row r="786" spans="1:1" ht="12.75">
+    <row r="786" spans="1:1" ht="13.2">
       <c r="A786" s="53"/>
     </row>
-    <row r="787" spans="1:1" ht="12.75">
+    <row r="787" spans="1:1" ht="13.2">
       <c r="A787" s="53"/>
     </row>
-    <row r="788" spans="1:1" ht="12.75">
+    <row r="788" spans="1:1" ht="13.2">
       <c r="A788" s="53"/>
     </row>
-    <row r="789" spans="1:1" ht="12.75">
+    <row r="789" spans="1:1" ht="13.2">
       <c r="A789" s="53"/>
     </row>
-    <row r="790" spans="1:1" ht="12.75">
+    <row r="790" spans="1:1" ht="13.2">
       <c r="A790" s="53"/>
     </row>
-    <row r="791" spans="1:1" ht="12.75">
+    <row r="791" spans="1:1" ht="13.2">
       <c r="A791" s="53"/>
     </row>
-    <row r="792" spans="1:1" ht="12.75">
+    <row r="792" spans="1:1" ht="13.2">
       <c r="A792" s="53"/>
     </row>
-    <row r="793" spans="1:1" ht="12.75">
+    <row r="793" spans="1:1" ht="13.2">
       <c r="A793" s="53"/>
     </row>
-    <row r="794" spans="1:1" ht="12.75">
+    <row r="794" spans="1:1" ht="13.2">
       <c r="A794" s="53"/>
     </row>
-    <row r="795" spans="1:1" ht="12.75">
+    <row r="795" spans="1:1" ht="13.2">
       <c r="A795" s="53"/>
     </row>
-    <row r="796" spans="1:1" ht="12.75">
+    <row r="796" spans="1:1" ht="13.2">
       <c r="A796" s="53"/>
     </row>
-    <row r="797" spans="1:1" ht="12.75">
+    <row r="797" spans="1:1" ht="13.2">
       <c r="A797" s="53"/>
     </row>
-    <row r="798" spans="1:1" ht="12.75">
+    <row r="798" spans="1:1" ht="13.2">
       <c r="A798" s="53"/>
     </row>
-    <row r="799" spans="1:1" ht="12.75">
+    <row r="799" spans="1:1" ht="13.2">
       <c r="A799" s="53"/>
     </row>
-    <row r="800" spans="1:1" ht="12.75">
+    <row r="800" spans="1:1" ht="13.2">
       <c r="A800" s="53"/>
     </row>
-    <row r="801" spans="1:1" ht="12.75">
+    <row r="801" spans="1:1" ht="13.2">
       <c r="A801" s="53"/>
     </row>
-    <row r="802" spans="1:1" ht="12.75">
+    <row r="802" spans="1:1" ht="13.2">
       <c r="A802" s="53"/>
     </row>
-    <row r="803" spans="1:1" ht="12.75">
+    <row r="803" spans="1:1" ht="13.2">
       <c r="A803" s="53"/>
     </row>
-    <row r="804" spans="1:1" ht="12.75">
+    <row r="804" spans="1:1" ht="13.2">
       <c r="A804" s="53"/>
     </row>
-    <row r="805" spans="1:1" ht="12.75">
+    <row r="805" spans="1:1" ht="13.2">
       <c r="A805" s="53"/>
     </row>
-    <row r="806" spans="1:1" ht="12.75">
+    <row r="806" spans="1:1" ht="13.2">
       <c r="A806" s="53"/>
     </row>
-    <row r="807" spans="1:1" ht="12.75">
+    <row r="807" spans="1:1" ht="13.2">
       <c r="A807" s="53"/>
     </row>
-    <row r="808" spans="1:1" ht="12.75">
+    <row r="808" spans="1:1" ht="13.2">
       <c r="A808" s="53"/>
     </row>
-    <row r="809" spans="1:1" ht="12.75">
+    <row r="809" spans="1:1" ht="13.2">
       <c r="A809" s="53"/>
     </row>
-    <row r="810" spans="1:1" ht="12.75">
+    <row r="810" spans="1:1" ht="13.2">
       <c r="A810" s="53"/>
     </row>
-    <row r="811" spans="1:1" ht="12.75">
+    <row r="811" spans="1:1" ht="13.2">
       <c r="A811" s="53"/>
     </row>
-    <row r="812" spans="1:1" ht="12.75">
+    <row r="812" spans="1:1" ht="13.2">
       <c r="A812" s="53"/>
     </row>
-    <row r="813" spans="1:1" ht="12.75">
+    <row r="813" spans="1:1" ht="13.2">
       <c r="A813" s="53"/>
     </row>
-    <row r="814" spans="1:1" ht="12.75">
+    <row r="814" spans="1:1" ht="13.2">
       <c r="A814" s="53"/>
     </row>
-    <row r="815" spans="1:1" ht="12.75">
+    <row r="815" spans="1:1" ht="13.2">
       <c r="A815" s="53"/>
     </row>
-    <row r="816" spans="1:1" ht="12.75">
+    <row r="816" spans="1:1" ht="13.2">
       <c r="A816" s="53"/>
     </row>
-    <row r="817" spans="1:1" ht="12.75">
+    <row r="817" spans="1:1" ht="13.2">
       <c r="A817" s="53"/>
     </row>
-    <row r="818" spans="1:1" ht="12.75">
+    <row r="818" spans="1:1" ht="13.2">
       <c r="A818" s="53"/>
     </row>
-    <row r="819" spans="1:1" ht="12.75">
+    <row r="819" spans="1:1" ht="13.2">
       <c r="A819" s="53"/>
     </row>
-    <row r="820" spans="1:1" ht="12.75">
+    <row r="820" spans="1:1" ht="13.2">
       <c r="A820" s="53"/>
     </row>
-    <row r="821" spans="1:1" ht="12.75">
+    <row r="821" spans="1:1" ht="13.2">
       <c r="A821" s="53"/>
     </row>
-    <row r="822" spans="1:1" ht="12.75">
+    <row r="822" spans="1:1" ht="13.2">
       <c r="A822" s="53"/>
     </row>
-    <row r="823" spans="1:1" ht="12.75">
+    <row r="823" spans="1:1" ht="13.2">
       <c r="A823" s="53"/>
     </row>
-    <row r="824" spans="1:1" ht="12.75">
+    <row r="824" spans="1:1" ht="13.2">
       <c r="A824" s="53"/>
     </row>
-    <row r="825" spans="1:1" ht="12.75">
+    <row r="825" spans="1:1" ht="13.2">
       <c r="A825" s="53"/>
     </row>
-    <row r="826" spans="1:1" ht="12.75">
+    <row r="826" spans="1:1" ht="13.2">
       <c r="A826" s="53"/>
     </row>
-    <row r="827" spans="1:1" ht="12.75">
+    <row r="827" spans="1:1" ht="13.2">
       <c r="A827" s="53"/>
     </row>
-    <row r="828" spans="1:1" ht="12.75">
+    <row r="828" spans="1:1" ht="13.2">
       <c r="A828" s="53"/>
     </row>
-    <row r="829" spans="1:1" ht="12.75">
+    <row r="829" spans="1:1" ht="13.2">
       <c r="A829" s="53"/>
     </row>
-    <row r="830" spans="1:1" ht="12.75">
+    <row r="830" spans="1:1" ht="13.2">
       <c r="A830" s="53"/>
     </row>
-    <row r="831" spans="1:1" ht="12.75">
+    <row r="831" spans="1:1" ht="13.2">
       <c r="A831" s="53"/>
     </row>
-    <row r="832" spans="1:1" ht="12.75">
+    <row r="832" spans="1:1" ht="13.2">
       <c r="A832" s="53"/>
     </row>
-    <row r="833" spans="1:1" ht="12.75">
+    <row r="833" spans="1:1" ht="13.2">
       <c r="A833" s="53"/>
     </row>
-    <row r="834" spans="1:1" ht="12.75">
+    <row r="834" spans="1:1" ht="13.2">
       <c r="A834" s="53"/>
     </row>
-    <row r="835" spans="1:1" ht="12.75">
+    <row r="835" spans="1:1" ht="13.2">
       <c r="A835" s="53"/>
     </row>
-    <row r="836" spans="1:1" ht="12.75">
+    <row r="836" spans="1:1" ht="13.2">
       <c r="A836" s="53"/>
     </row>
-    <row r="837" spans="1:1" ht="12.75">
+    <row r="837" spans="1:1" ht="13.2">
       <c r="A837" s="53"/>
     </row>
-    <row r="838" spans="1:1" ht="12.75">
+    <row r="838" spans="1:1" ht="13.2">
       <c r="A838" s="53"/>
     </row>
-    <row r="839" spans="1:1" ht="12.75">
+    <row r="839" spans="1:1" ht="13.2">
       <c r="A839" s="53"/>
     </row>
-    <row r="840" spans="1:1" ht="12.75">
+    <row r="840" spans="1:1" ht="13.2">
       <c r="A840" s="53"/>
     </row>
-    <row r="841" spans="1:1" ht="12.75">
+    <row r="841" spans="1:1" ht="13.2">
       <c r="A841" s="53"/>
     </row>
-    <row r="842" spans="1:1" ht="12.75">
+    <row r="842" spans="1:1" ht="13.2">
       <c r="A842" s="53"/>
     </row>
-    <row r="843" spans="1:1" ht="12.75">
+    <row r="843" spans="1:1" ht="13.2">
       <c r="A843" s="53"/>
     </row>
-    <row r="844" spans="1:1" ht="12.75">
+    <row r="844" spans="1:1" ht="13.2">
       <c r="A844" s="53"/>
     </row>
-    <row r="845" spans="1:1" ht="12.75">
+    <row r="845" spans="1:1" ht="13.2">
       <c r="A845" s="53"/>
     </row>
-    <row r="846" spans="1:1" ht="12.75">
+    <row r="846" spans="1:1" ht="13.2">
       <c r="A846" s="53"/>
     </row>
-    <row r="847" spans="1:1" ht="12.75">
+    <row r="847" spans="1:1" ht="13.2">
       <c r="A847" s="53"/>
     </row>
-    <row r="848" spans="1:1" ht="12.75">
+    <row r="848" spans="1:1" ht="13.2">
       <c r="A848" s="53"/>
     </row>
-    <row r="849" spans="1:1" ht="12.75">
+    <row r="849" spans="1:1" ht="13.2">
       <c r="A849" s="53"/>
     </row>
-    <row r="850" spans="1:1" ht="12.75">
+    <row r="850" spans="1:1" ht="13.2">
       <c r="A850" s="53"/>
     </row>
-    <row r="851" spans="1:1" ht="12.75">
+    <row r="851" spans="1:1" ht="13.2">
       <c r="A851" s="53"/>
     </row>
-    <row r="852" spans="1:1" ht="12.75">
+    <row r="852" spans="1:1" ht="13.2">
       <c r="A852" s="53"/>
     </row>
-    <row r="853" spans="1:1" ht="12.75">
+    <row r="853" spans="1:1" ht="13.2">
       <c r="A853" s="53"/>
     </row>
-    <row r="854" spans="1:1" ht="12.75">
+    <row r="854" spans="1:1" ht="13.2">
       <c r="A854" s="53"/>
     </row>
-    <row r="855" spans="1:1" ht="12.75">
+    <row r="855" spans="1:1" ht="13.2">
       <c r="A855" s="53"/>
     </row>
-    <row r="856" spans="1:1" ht="12.75">
+    <row r="856" spans="1:1" ht="13.2">
       <c r="A856" s="53"/>
     </row>
-    <row r="857" spans="1:1" ht="12.75">
+    <row r="857" spans="1:1" ht="13.2">
       <c r="A857" s="53"/>
     </row>
-    <row r="858" spans="1:1" ht="12.75">
+    <row r="858" spans="1:1" ht="13.2">
       <c r="A858" s="53"/>
     </row>
-    <row r="859" spans="1:1" ht="12.75">
+    <row r="859" spans="1:1" ht="13.2">
       <c r="A859" s="53"/>
     </row>
-    <row r="860" spans="1:1" ht="12.75">
+    <row r="860" spans="1:1" ht="13.2">
       <c r="A860" s="53"/>
     </row>
-    <row r="861" spans="1:1" ht="12.75">
+    <row r="861" spans="1:1" ht="13.2">
       <c r="A861" s="53"/>
     </row>
-    <row r="862" spans="1:1" ht="12.75">
+    <row r="862" spans="1:1" ht="13.2">
       <c r="A862" s="53"/>
     </row>
-    <row r="863" spans="1:1" ht="12.75">
+    <row r="863" spans="1:1" ht="13.2">
       <c r="A863" s="53"/>
     </row>
-    <row r="864" spans="1:1" ht="12.75">
+    <row r="864" spans="1:1" ht="13.2">
       <c r="A864" s="53"/>
     </row>
-    <row r="865" spans="1:1" ht="12.75">
+    <row r="865" spans="1:1" ht="13.2">
       <c r="A865" s="53"/>
     </row>
-    <row r="866" spans="1:1" ht="12.75">
+    <row r="866" spans="1:1" ht="13.2">
       <c r="A866" s="53"/>
     </row>
-    <row r="867" spans="1:1" ht="12.75">
+    <row r="867" spans="1:1" ht="13.2">
       <c r="A867" s="53"/>
     </row>
-    <row r="868" spans="1:1" ht="12.75">
+    <row r="868" spans="1:1" ht="13.2">
       <c r="A868" s="53"/>
     </row>
-    <row r="869" spans="1:1" ht="12.75">
+    <row r="869" spans="1:1" ht="13.2">
       <c r="A869" s="53"/>
     </row>
-    <row r="870" spans="1:1" ht="12.75">
+    <row r="870" spans="1:1" ht="13.2">
       <c r="A870" s="53"/>
     </row>
-    <row r="871" spans="1:1" ht="12.75">
+    <row r="871" spans="1:1" ht="13.2">
       <c r="A871" s="53"/>
     </row>
-    <row r="872" spans="1:1" ht="12.75">
+    <row r="872" spans="1:1" ht="13.2">
       <c r="A872" s="53"/>
     </row>
-    <row r="873" spans="1:1" ht="12.75">
+    <row r="873" spans="1:1" ht="13.2">
       <c r="A873" s="53"/>
     </row>
-    <row r="874" spans="1:1" ht="12.75">
+    <row r="874" spans="1:1" ht="13.2">
       <c r="A874" s="53"/>
     </row>
-    <row r="875" spans="1:1" ht="12.75">
+    <row r="875" spans="1:1" ht="13.2">
       <c r="A875" s="53"/>
     </row>
-    <row r="876" spans="1:1" ht="12.75">
+    <row r="876" spans="1:1" ht="13.2">
       <c r="A876" s="53"/>
     </row>
-    <row r="877" spans="1:1" ht="12.75">
+    <row r="877" spans="1:1" ht="13.2">
       <c r="A877" s="53"/>
     </row>
-    <row r="878" spans="1:1" ht="12.75">
+    <row r="878" spans="1:1" ht="13.2">
       <c r="A878" s="53"/>
     </row>
-    <row r="879" spans="1:1" ht="12.75">
+    <row r="879" spans="1:1" ht="13.2">
       <c r="A879" s="53"/>
     </row>
-    <row r="880" spans="1:1" ht="12.75">
+    <row r="880" spans="1:1" ht="13.2">
       <c r="A880" s="53"/>
     </row>
-    <row r="881" spans="1:1" ht="12.75">
+    <row r="881" spans="1:1" ht="13.2">
       <c r="A881" s="53"/>
     </row>
-    <row r="882" spans="1:1" ht="12.75">
+    <row r="882" spans="1:1" ht="13.2">
       <c r="A882" s="53"/>
     </row>
-    <row r="883" spans="1:1" ht="12.75">
+    <row r="883" spans="1:1" ht="13.2">
       <c r="A883" s="53"/>
     </row>
-    <row r="884" spans="1:1" ht="12.75">
+    <row r="884" spans="1:1" ht="13.2">
       <c r="A884" s="53"/>
     </row>
-    <row r="885" spans="1:1" ht="12.75">
+    <row r="885" spans="1:1" ht="13.2">
       <c r="A885" s="53"/>
     </row>
-    <row r="886" spans="1:1" ht="12.75">
+    <row r="886" spans="1:1" ht="13.2">
       <c r="A886" s="53"/>
     </row>
-    <row r="887" spans="1:1" ht="12.75">
+    <row r="887" spans="1:1" ht="13.2">
       <c r="A887" s="53"/>
     </row>
-    <row r="888" spans="1:1" ht="12.75">
+    <row r="888" spans="1:1" ht="13.2">
       <c r="A888" s="53"/>
     </row>
-    <row r="889" spans="1:1" ht="12.75">
+    <row r="889" spans="1:1" ht="13.2">
       <c r="A889" s="53"/>
     </row>
-    <row r="890" spans="1:1" ht="12.75">
+    <row r="890" spans="1:1" ht="13.2">
       <c r="A890" s="53"/>
     </row>
-    <row r="891" spans="1:1" ht="12.75">
+    <row r="891" spans="1:1" ht="13.2">
       <c r="A891" s="53"/>
     </row>
-    <row r="892" spans="1:1" ht="12.75">
+    <row r="892" spans="1:1" ht="13.2">
       <c r="A892" s="53"/>
     </row>
-    <row r="893" spans="1:1" ht="12.75">
+    <row r="893" spans="1:1" ht="13.2">
       <c r="A893" s="53"/>
     </row>
-    <row r="894" spans="1:1" ht="12.75">
+    <row r="894" spans="1:1" ht="13.2">
       <c r="A894" s="53"/>
     </row>
-    <row r="895" spans="1:1" ht="12.75">
+    <row r="895" spans="1:1" ht="13.2">
       <c r="A895" s="53"/>
     </row>
-    <row r="896" spans="1:1" ht="12.75">
+    <row r="896" spans="1:1" ht="13.2">
       <c r="A896" s="53"/>
     </row>
-    <row r="897" spans="1:1" ht="12.75">
+    <row r="897" spans="1:1" ht="13.2">
       <c r="A897" s="53"/>
     </row>
-    <row r="898" spans="1:1" ht="12.75">
+    <row r="898" spans="1:1" ht="13.2">
       <c r="A898" s="53"/>
     </row>
-    <row r="899" spans="1:1" ht="12.75">
+    <row r="899" spans="1:1" ht="13.2">
       <c r="A899" s="53"/>
     </row>
-    <row r="900" spans="1:1" ht="12.75">
+    <row r="900" spans="1:1" ht="13.2">
       <c r="A900" s="53"/>
     </row>
-    <row r="901" spans="1:1" ht="12.75">
+    <row r="901" spans="1:1" ht="13.2">
       <c r="A901" s="53"/>
     </row>
-    <row r="902" spans="1:1" ht="12.75">
+    <row r="902" spans="1:1" ht="13.2">
       <c r="A902" s="53"/>
     </row>
-    <row r="903" spans="1:1" ht="12.75">
+    <row r="903" spans="1:1" ht="13.2">
       <c r="A903" s="53"/>
     </row>
-    <row r="904" spans="1:1" ht="12.75">
+    <row r="904" spans="1:1" ht="13.2">
       <c r="A904" s="53"/>
     </row>
-    <row r="905" spans="1:1" ht="12.75">
+    <row r="905" spans="1:1" ht="13.2">
       <c r="A905" s="53"/>
     </row>
-    <row r="906" spans="1:1" ht="12.75">
+    <row r="906" spans="1:1" ht="13.2">
       <c r="A906" s="53"/>
     </row>
-    <row r="907" spans="1:1" ht="12.75">
+    <row r="907" spans="1:1" ht="13.2">
       <c r="A907" s="53"/>
     </row>
-    <row r="908" spans="1:1" ht="12.75">
+    <row r="908" spans="1:1" ht="13.2">
       <c r="A908" s="53"/>
     </row>
-    <row r="909" spans="1:1" ht="12.75">
+    <row r="909" spans="1:1" ht="13.2">
       <c r="A909" s="53"/>
     </row>
-    <row r="910" spans="1:1" ht="12.75">
+    <row r="910" spans="1:1" ht="13.2">
       <c r="A910" s="53"/>
     </row>
-    <row r="911" spans="1:1" ht="12.75">
+    <row r="911" spans="1:1" ht="13.2">
       <c r="A911" s="53"/>
     </row>
-    <row r="912" spans="1:1" ht="12.75">
+    <row r="912" spans="1:1" ht="13.2">
       <c r="A912" s="53"/>
     </row>
-    <row r="913" spans="1:1" ht="12.75">
+    <row r="913" spans="1:1" ht="13.2">
       <c r="A913" s="53"/>
     </row>
-    <row r="914" spans="1:1" ht="12.75">
+    <row r="914" spans="1:1" ht="13.2">
       <c r="A914" s="53"/>
     </row>
-    <row r="915" spans="1:1" ht="12.75">
+    <row r="915" spans="1:1" ht="13.2">
       <c r="A915" s="53"/>
     </row>
-    <row r="916" spans="1:1" ht="12.75">
+    <row r="916" spans="1:1" ht="13.2">
       <c r="A916" s="53"/>
     </row>
-    <row r="917" spans="1:1" ht="12.75">
+    <row r="917" spans="1:1" ht="13.2">
       <c r="A917" s="53"/>
     </row>
-    <row r="918" spans="1:1" ht="12.75">
+    <row r="918" spans="1:1" ht="13.2">
       <c r="A918" s="53"/>
     </row>
-    <row r="919" spans="1:1" ht="12.75">
+    <row r="919" spans="1:1" ht="13.2">
       <c r="A919" s="53"/>
     </row>
-    <row r="920" spans="1:1" ht="12.75">
+    <row r="920" spans="1:1" ht="13.2">
       <c r="A920" s="53"/>
     </row>
-    <row r="921" spans="1:1" ht="12.75">
+    <row r="921" spans="1:1" ht="13.2">
       <c r="A921" s="53"/>
     </row>
-    <row r="922" spans="1:1" ht="12.75">
+    <row r="922" spans="1:1" ht="13.2">
       <c r="A922" s="53"/>
     </row>
-    <row r="923" spans="1:1" ht="12.75">
+    <row r="923" spans="1:1" ht="13.2">
       <c r="A923" s="53"/>
     </row>
-    <row r="924" spans="1:1" ht="12.75">
+    <row r="924" spans="1:1" ht="13.2">
       <c r="A924" s="53"/>
     </row>
-    <row r="925" spans="1:1" ht="12.75">
+    <row r="925" spans="1:1" ht="13.2">
       <c r="A925" s="53"/>
     </row>
-    <row r="926" spans="1:1" ht="12.75">
+    <row r="926" spans="1:1" ht="13.2">
       <c r="A926" s="53"/>
     </row>
-    <row r="927" spans="1:1" ht="12.75">
+    <row r="927" spans="1:1" ht="13.2">
       <c r="A927" s="53"/>
     </row>
-    <row r="928" spans="1:1" ht="12.75">
+    <row r="928" spans="1:1" ht="13.2">
       <c r="A928" s="53"/>
     </row>
-    <row r="929" spans="1:1" ht="12.75">
+    <row r="929" spans="1:1" ht="13.2">
       <c r="A929" s="53"/>
     </row>
-    <row r="930" spans="1:1" ht="12.75">
+    <row r="930" spans="1:1" ht="13.2">
       <c r="A930" s="53"/>
     </row>
-    <row r="931" spans="1:1" ht="12.75">
+    <row r="931" spans="1:1" ht="13.2">
       <c r="A931" s="53"/>
     </row>
-    <row r="932" spans="1:1" ht="12.75">
+    <row r="932" spans="1:1" ht="13.2">
       <c r="A932" s="53"/>
     </row>
-    <row r="933" spans="1:1" ht="12.75">
+    <row r="933" spans="1:1" ht="13.2">
       <c r="A933" s="53"/>
     </row>
-    <row r="934" spans="1:1" ht="12.75">
+    <row r="934" spans="1:1" ht="13.2">
       <c r="A934" s="53"/>
     </row>
-    <row r="935" spans="1:1" ht="12.75">
+    <row r="935" spans="1:1" ht="13.2">
       <c r="A935" s="53"/>
     </row>
-    <row r="936" spans="1:1" ht="12.75">
+    <row r="936" spans="1:1" ht="13.2">
       <c r="A936" s="53"/>
     </row>
-    <row r="937" spans="1:1" ht="12.75">
+    <row r="937" spans="1:1" ht="13.2">
       <c r="A937" s="53"/>
     </row>
-    <row r="938" spans="1:1" ht="12.75">
+    <row r="938" spans="1:1" ht="13.2">
       <c r="A938" s="53"/>
     </row>
-    <row r="939" spans="1:1" ht="12.75">
+    <row r="939" spans="1:1" ht="13.2">
       <c r="A939" s="53"/>
     </row>
-    <row r="940" spans="1:1" ht="12.75">
+    <row r="940" spans="1:1" ht="13.2">
       <c r="A940" s="53"/>
     </row>
-    <row r="941" spans="1:1" ht="12.75">
+    <row r="941" spans="1:1" ht="13.2">
       <c r="A941" s="53"/>
     </row>
-    <row r="942" spans="1:1" ht="12.75">
+    <row r="942" spans="1:1" ht="13.2">
       <c r="A942" s="53"/>
     </row>
-    <row r="943" spans="1:1" ht="12.75">
+    <row r="943" spans="1:1" ht="13.2">
       <c r="A943" s="53"/>
     </row>
-    <row r="944" spans="1:1" ht="12.75">
+    <row r="944" spans="1:1" ht="13.2">
       <c r="A944" s="53"/>
     </row>
-    <row r="945" spans="1:1" ht="12.75">
+    <row r="945" spans="1:1" ht="13.2">
       <c r="A945" s="53"/>
     </row>
-    <row r="946" spans="1:1" ht="12.75">
+    <row r="946" spans="1:1" ht="13.2">
       <c r="A946" s="53"/>
     </row>
-    <row r="947" spans="1:1" ht="12.75">
+    <row r="947" spans="1:1" ht="13.2">
       <c r="A947" s="53"/>
     </row>
-    <row r="948" spans="1:1" ht="12.75">
+    <row r="948" spans="1:1" ht="13.2">
       <c r="A948" s="53"/>
     </row>
-    <row r="949" spans="1:1" ht="12.75">
+    <row r="949" spans="1:1" ht="13.2">
       <c r="A949" s="53"/>
     </row>
-    <row r="950" spans="1:1" ht="12.75">
+    <row r="950" spans="1:1" ht="13.2">
       <c r="A950" s="53"/>
     </row>
-    <row r="951" spans="1:1" ht="12.75">
+    <row r="951" spans="1:1" ht="13.2">
       <c r="A951" s="53"/>
     </row>
-    <row r="952" spans="1:1" ht="12.75">
+    <row r="952" spans="1:1" ht="13.2">
       <c r="A952" s="53"/>
     </row>
-    <row r="953" spans="1:1" ht="12.75">
+    <row r="953" spans="1:1" ht="13.2">
       <c r="A953" s="53"/>
     </row>
-    <row r="954" spans="1:1" ht="12.75">
+    <row r="954" spans="1:1" ht="13.2">
       <c r="A954" s="53"/>
     </row>
-    <row r="955" spans="1:1" ht="12.75">
+    <row r="955" spans="1:1" ht="13.2">
       <c r="A955" s="53"/>
     </row>
-    <row r="956" spans="1:1" ht="12.75">
+    <row r="956" spans="1:1" ht="13.2">
       <c r="A956" s="53"/>
     </row>
-    <row r="957" spans="1:1" ht="12.75">
+    <row r="957" spans="1:1" ht="13.2">
       <c r="A957" s="53"/>
     </row>
-    <row r="958" spans="1:1" ht="12.75">
+    <row r="958" spans="1:1" ht="13.2">
       <c r="A958" s="53"/>
     </row>
-    <row r="959" spans="1:1" ht="12.75">
+    <row r="959" spans="1:1" ht="13.2">
       <c r="A959" s="53"/>
     </row>
-    <row r="960" spans="1:1" ht="12.75">
+    <row r="960" spans="1:1" ht="13.2">
       <c r="A960" s="53"/>
     </row>
-    <row r="961" spans="1:67" ht="12.75">
+    <row r="961" spans="1:67" ht="13.2">
       <c r="A961" s="53"/>
     </row>
-    <row r="962" spans="1:67" ht="12.75">
+    <row r="962" spans="1:67" ht="13.2">
       <c r="A962" s="53"/>
     </row>
-    <row r="963" spans="1:67" ht="12.75">
+    <row r="963" spans="1:67" ht="13.2">
       <c r="A963" s="53"/>
     </row>
-    <row r="964" spans="1:67" ht="12.75">
+    <row r="964" spans="1:67" ht="13.2">
       <c r="A964" s="53"/>
     </row>
-    <row r="965" spans="1:67" ht="12.75">
+    <row r="965" spans="1:67" ht="13.2">
       <c r="A965" s="53"/>
     </row>
-    <row r="966" spans="1:67" ht="12.75">
+    <row r="966" spans="1:67" ht="13.2">
       <c r="A966" s="53"/>
     </row>
-    <row r="967" spans="1:67" ht="12.75">
+    <row r="967" spans="1:67" ht="13.2">
       <c r="A967" s="53"/>
     </row>
-    <row r="968" spans="1:67" ht="12.75">
+    <row r="968" spans="1:67" ht="13.2">
       <c r="A968" s="53"/>
     </row>
-    <row r="969" spans="1:67" ht="12.75">
+    <row r="969" spans="1:67" ht="13.2">
       <c r="A969" s="53"/>
     </row>
-    <row r="970" spans="1:67" ht="12.75">
+    <row r="970" spans="1:67" ht="13.2">
       <c r="A970" s="53"/>
     </row>
-    <row r="971" spans="1:67" ht="12.75">
+    <row r="971" spans="1:67" ht="13.2">
       <c r="A971" s="53"/>
     </row>
-    <row r="972" spans="1:67" ht="12.75">
+    <row r="972" spans="1:67" ht="13.2">
       <c r="A972" s="53"/>
     </row>
-    <row r="973" spans="1:67" ht="12.75">
+    <row r="973" spans="1:67" ht="13.2">
       <c r="A973" s="53"/>
       <c r="H973" s="4"/>
       <c r="I973" s="4"/>
@@ -9850,73 +9853,73 @@
       <c r="BN973" s="4"/>
       <c r="BO973" s="4"/>
     </row>
-    <row r="974" spans="1:67" ht="12.75">
+    <row r="974" spans="1:67" ht="13.2">
       <c r="A974" s="53"/>
     </row>
-    <row r="975" spans="1:67" ht="12.75">
+    <row r="975" spans="1:67" ht="13.2">
       <c r="A975" s="53"/>
     </row>
-    <row r="976" spans="1:67" ht="12.75">
+    <row r="976" spans="1:67" ht="13.2">
       <c r="A976" s="53"/>
     </row>
-    <row r="977" spans="1:1" ht="12.75">
+    <row r="977" spans="1:1" ht="13.2">
       <c r="A977" s="53"/>
     </row>
-    <row r="978" spans="1:1" ht="12.75">
+    <row r="978" spans="1:1" ht="13.2">
       <c r="A978" s="53"/>
     </row>
-    <row r="979" spans="1:1" ht="12.75">
+    <row r="979" spans="1:1" ht="13.2">
       <c r="A979" s="53"/>
     </row>
-    <row r="980" spans="1:1" ht="12.75">
+    <row r="980" spans="1:1" ht="13.2">
       <c r="A980" s="53"/>
     </row>
-    <row r="981" spans="1:1" ht="12.75">
+    <row r="981" spans="1:1" ht="13.2">
       <c r="A981" s="53"/>
     </row>
-    <row r="982" spans="1:1" ht="12.75">
+    <row r="982" spans="1:1" ht="13.2">
       <c r="A982" s="53"/>
     </row>
-    <row r="983" spans="1:1" ht="12.75">
+    <row r="983" spans="1:1" ht="13.2">
       <c r="A983" s="53"/>
     </row>
-    <row r="984" spans="1:1" ht="12.75">
+    <row r="984" spans="1:1" ht="13.2">
       <c r="A984" s="53"/>
     </row>
-    <row r="985" spans="1:1" ht="12.75">
+    <row r="985" spans="1:1" ht="13.2">
       <c r="A985" s="53"/>
     </row>
-    <row r="986" spans="1:1" ht="12.75">
+    <row r="986" spans="1:1" ht="13.2">
       <c r="A986" s="53"/>
     </row>
-    <row r="987" spans="1:1" ht="12.75">
+    <row r="987" spans="1:1" ht="13.2">
       <c r="A987" s="53"/>
     </row>
-    <row r="988" spans="1:1" ht="12.75">
+    <row r="988" spans="1:1" ht="13.2">
       <c r="A988" s="53"/>
     </row>
-    <row r="989" spans="1:1" ht="12.75">
+    <row r="989" spans="1:1" ht="13.2">
       <c r="A989" s="53"/>
     </row>
-    <row r="990" spans="1:1" ht="12.75">
+    <row r="990" spans="1:1" ht="13.2">
       <c r="A990" s="53"/>
     </row>
-    <row r="991" spans="1:1" ht="12.75">
+    <row r="991" spans="1:1" ht="13.2">
       <c r="A991" s="53"/>
     </row>
-    <row r="992" spans="1:1" ht="12.75">
+    <row r="992" spans="1:1" ht="13.2">
       <c r="A992" s="53"/>
     </row>
-    <row r="993" spans="1:7" ht="12.75">
+    <row r="993" spans="1:7" ht="13.2">
       <c r="A993" s="53"/>
     </row>
-    <row r="994" spans="1:7" ht="12.75">
+    <row r="994" spans="1:7" ht="13.2">
       <c r="A994" s="53"/>
     </row>
-    <row r="995" spans="1:7" ht="12.75">
+    <row r="995" spans="1:7" ht="13.2">
       <c r="A995" s="53"/>
     </row>
-    <row r="996" spans="1:7" ht="12.75">
+    <row r="996" spans="1:7" ht="13.2">
       <c r="A996" s="73"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -9927,14 +9930,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="BF6:BJ6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="W6:AA6"/>
     <mergeCell ref="BK6:BO6"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="A3:G3"/>
@@ -9951,6 +9946,14 @@
     <mergeCell ref="AG6:AK6"/>
     <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="R6:V6"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="BF6:BJ6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="W6:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:G14 G16:G19 G21:G26 G28:G31">
     <cfRule type="colorScale" priority="1">
